--- a/Content/SQL/NBAdbToolbox Database documentation.xlsx
+++ b/Content/SQL/NBAdbToolbox Database documentation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\derfj\Desktop\NBAdbToolbox\Content\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9D5FB95-0BED-4CB8-9B0A-F0CC39D1D3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43D3F68-0E01-4B74-8A91-C523197A3D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3468E338-C2BE-4D61-9A1A-4F8A91A73365}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
   <si>
     <t>Database Notes</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>Reopened UI</t>
+  </si>
+  <si>
+    <t>Success</t>
   </si>
 </sst>
 </file>
@@ -521,177 +524,177 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1029,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A67DDA6-2C9C-49F5-95FA-753F6A4815CC}">
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41:M43"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,32 +1057,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="8" customFormat="1" ht="63.75" x14ac:dyDescent="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
       <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
@@ -1089,34 +1092,34 @@
       <c r="H2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="46" t="s">
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="47"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="53" t="s">
+      <c r="O2" s="28"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="54"/>
-      <c r="S2" s="55"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="26"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="5">
         <v>1</v>
       </c>
@@ -1126,75 +1129,75 @@
       <c r="H3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="21"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="35"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="41"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="16"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="38"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="19"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="41"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="22"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="5">
         <v>2</v>
       </c>
@@ -1204,35 +1207,35 @@
       <c r="H6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -1241,65 +1244,65 @@
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="23"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
@@ -1313,14 +1316,14 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
@@ -1334,14 +1337,14 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -1355,14 +1358,14 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
@@ -1376,24 +1379,24 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="45"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="6" t="s">
         <v>13</v>
       </c>
@@ -1403,34 +1406,34 @@
       <c r="H16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="46" t="s">
+      <c r="I16" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="46" t="s">
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="O16" s="47"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="53" t="s">
+      <c r="O16" s="28"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="R16" s="54"/>
-      <c r="S16" s="55"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="26"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="62"/>
       <c r="F17" s="5">
         <v>1</v>
       </c>
@@ -1440,108 +1443,108 @@
       <c r="H17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="42" t="s">
+      <c r="I17" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="21"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="41"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="62"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="23"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="44"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="26"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="47"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
@@ -1550,63 +1553,63 @@
       <c r="A22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="23"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="44"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
     </row>
     <row r="24" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="47"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
@@ -1620,14 +1623,14 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
@@ -1641,14 +1644,14 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
@@ -1662,14 +1665,14 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
@@ -1683,24 +1686,24 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="45"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="59"/>
       <c r="F30" s="6" t="s">
         <v>13</v>
       </c>
@@ -1710,34 +1713,34 @@
       <c r="H30" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="46" t="s">
+      <c r="I30" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="46" t="s">
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="O30" s="47"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="53" t="s">
+      <c r="O30" s="28"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="R30" s="54"/>
-      <c r="S30" s="55"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="26"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="51"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="62"/>
       <c r="F31" s="5">
         <v>1</v>
       </c>
@@ -1747,78 +1750,78 @@
       <c r="H31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I31" s="42" t="s">
+      <c r="I31" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="19" t="s">
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="R31" s="20"/>
-      <c r="S31" s="21"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="41"/>
     </row>
     <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="51"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="62"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="23"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="44"/>
     </row>
     <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="57"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="50"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="26"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="47"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="60"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="53"/>
       <c r="F34" s="5">
         <v>2</v>
       </c>
@@ -1828,93 +1831,95 @@
       <c r="H34" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I34" s="42" t="s">
+      <c r="I34" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="42" t="s">
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="O34" s="20"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="12"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="32"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="60"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="53"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="15"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="35"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="63"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="56"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="15"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="35"/>
     </row>
     <row r="37" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="21"/>
+      <c r="B37" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="41"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="18"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="38"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="23"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="44"/>
       <c r="F38" s="5">
         <v>3</v>
       </c>
@@ -1924,37 +1929,37 @@
       <c r="H38" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="19" t="s">
+      <c r="I38" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
     </row>
     <row r="39" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="26"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="47"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
@@ -1968,14 +1973,14 @@
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
@@ -1989,14 +1994,14 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
@@ -2010,14 +2015,14 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
@@ -2031,24 +2036,24 @@
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="32"/>
-      <c r="P43" s="32"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
     </row>
     <row r="45" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="45"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="59"/>
       <c r="F45" s="6" t="s">
         <v>13</v>
       </c>
@@ -2058,18 +2063,18 @@
       <c r="H45" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="46" t="s">
+      <c r="I45" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="46" t="s">
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="O45" s="47"/>
-      <c r="P45" s="48"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="29"/>
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
@@ -2078,23 +2083,23 @@
       <c r="A46" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="49"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="51"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="62"/>
       <c r="F46" s="5">
         <v>1</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
       <c r="S46" s="5"/>
@@ -2103,23 +2108,23 @@
       <c r="A47" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="49" t="s">
+      <c r="B47" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="51"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="62"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
@@ -2128,63 +2133,63 @@
       <c r="A48" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="32"/>
-      <c r="O48" s="32"/>
-      <c r="P48" s="32"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="28"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
       <c r="S49" s="5"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
       <c r="S50" s="5"/>
@@ -2193,63 +2198,63 @@
       <c r="A51" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="21"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="41"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="32"/>
-      <c r="P51" s="32"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
       <c r="S51" s="5"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="23"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="44"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="28"/>
-      <c r="P52" s="28"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
     </row>
     <row r="53" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="26"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="47"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
       <c r="S53" s="5"/>
@@ -2263,14 +2268,14 @@
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="32"/>
-      <c r="O54" s="32"/>
-      <c r="P54" s="32"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
       <c r="S54" s="5"/>
@@ -2284,14 +2289,14 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="28"/>
-      <c r="P55" s="28"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="41"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
@@ -2305,14 +2310,14 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="23"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="44"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
@@ -2326,24 +2331,24 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="32"/>
-      <c r="O57" s="32"/>
-      <c r="P57" s="32"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="47"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
       <c r="S57" s="5"/>
     </row>
     <row r="59" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="43"/>
-      <c r="B59" s="44"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="45"/>
+      <c r="A59" s="57"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="59"/>
       <c r="F59" s="6" t="s">
         <v>13</v>
       </c>
@@ -2353,16 +2358,16 @@
       <c r="H59" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I59" s="46" t="s">
+      <c r="I59" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J59" s="47"/>
-      <c r="K59" s="47"/>
-      <c r="L59" s="47"/>
-      <c r="M59" s="48"/>
-      <c r="N59" s="52"/>
-      <c r="O59" s="52"/>
-      <c r="P59" s="52"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="23"/>
+      <c r="O59" s="23"/>
+      <c r="P59" s="23"/>
       <c r="Q59" s="6"/>
       <c r="R59" s="6"/>
       <c r="S59" s="6"/>
@@ -2371,23 +2376,23 @@
       <c r="A60" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="49"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="51"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="62"/>
       <c r="F60" s="5">
         <v>1</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="28"/>
-      <c r="P60" s="28"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
       <c r="S60" s="5"/>
@@ -2396,23 +2401,23 @@
       <c r="A61" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="49" t="s">
+      <c r="B61" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="51"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="62"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="23"/>
-      <c r="N61" s="30"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="30"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="44"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
       <c r="S61" s="5"/>
@@ -2421,63 +2426,63 @@
       <c r="A62" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B62" s="42"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="25"/>
-      <c r="M62" s="26"/>
-      <c r="N62" s="32"/>
-      <c r="O62" s="32"/>
-      <c r="P62" s="32"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="46"/>
+      <c r="M62" s="47"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
       <c r="S62" s="5"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="21"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="28"/>
-      <c r="P63" s="28"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="40"/>
+      <c r="M63" s="41"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
       <c r="S63" s="5"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="23"/>
-      <c r="N64" s="30"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="30"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="43"/>
+      <c r="M64" s="44"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
       <c r="S64" s="5"/>
@@ -2486,63 +2491,63 @@
       <c r="A65" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="21"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="41"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="26"/>
-      <c r="N65" s="32"/>
-      <c r="O65" s="32"/>
-      <c r="P65" s="32"/>
+      <c r="I65" s="45"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="46"/>
+      <c r="M65" s="47"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
       <c r="S65" s="5"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="23"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="44"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="28"/>
-      <c r="P66" s="28"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="40"/>
+      <c r="L66" s="40"/>
+      <c r="M66" s="41"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
       <c r="S66" s="5"/>
     </row>
     <row r="67" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="26"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="47"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="23"/>
-      <c r="N67" s="30"/>
-      <c r="O67" s="30"/>
-      <c r="P67" s="30"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="43"/>
+      <c r="M67" s="44"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
       <c r="S67" s="5"/>
@@ -2556,14 +2561,14 @@
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="25"/>
-      <c r="M68" s="26"/>
-      <c r="N68" s="32"/>
-      <c r="O68" s="32"/>
-      <c r="P68" s="32"/>
+      <c r="I68" s="45"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="46"/>
+      <c r="M68" s="47"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
       <c r="S68" s="5"/>
@@ -2577,14 +2582,14 @@
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="28"/>
-      <c r="O69" s="28"/>
-      <c r="P69" s="28"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="40"/>
+      <c r="K69" s="40"/>
+      <c r="L69" s="40"/>
+      <c r="M69" s="41"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
       <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
       <c r="S69" s="5"/>
@@ -2598,14 +2603,14 @@
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="23"/>
-      <c r="N70" s="30"/>
-      <c r="O70" s="30"/>
-      <c r="P70" s="30"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="43"/>
+      <c r="K70" s="43"/>
+      <c r="L70" s="43"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
       <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
       <c r="S70" s="5"/>
@@ -2619,24 +2624,24 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="25"/>
-      <c r="M71" s="26"/>
-      <c r="N71" s="32"/>
-      <c r="O71" s="32"/>
-      <c r="P71" s="32"/>
+      <c r="I71" s="45"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="46"/>
+      <c r="L71" s="46"/>
+      <c r="M71" s="47"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="13"/>
       <c r="Q71" s="5"/>
       <c r="R71" s="5"/>
       <c r="S71" s="5"/>
     </row>
     <row r="73" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="43"/>
-      <c r="B73" s="44"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="45"/>
+      <c r="A73" s="57"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="58"/>
+      <c r="E73" s="59"/>
       <c r="F73" s="6" t="s">
         <v>13</v>
       </c>
@@ -2646,16 +2651,16 @@
       <c r="H73" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I73" s="46" t="s">
+      <c r="I73" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J73" s="47"/>
-      <c r="K73" s="47"/>
-      <c r="L73" s="47"/>
-      <c r="M73" s="48"/>
-      <c r="N73" s="52"/>
-      <c r="O73" s="52"/>
-      <c r="P73" s="52"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="28"/>
+      <c r="M73" s="29"/>
+      <c r="N73" s="23"/>
+      <c r="O73" s="23"/>
+      <c r="P73" s="23"/>
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
       <c r="S73" s="6"/>
@@ -2664,23 +2669,23 @@
       <c r="A74" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="49"/>
-      <c r="C74" s="50"/>
-      <c r="D74" s="50"/>
-      <c r="E74" s="51"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="62"/>
       <c r="F74" s="5">
         <v>1</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="20"/>
-      <c r="L74" s="20"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="28"/>
-      <c r="O74" s="28"/>
-      <c r="P74" s="28"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="40"/>
+      <c r="K74" s="40"/>
+      <c r="L74" s="40"/>
+      <c r="M74" s="41"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
       <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
       <c r="S74" s="5"/>
@@ -2689,23 +2694,23 @@
       <c r="A75" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="49" t="s">
+      <c r="B75" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C75" s="50"/>
-      <c r="D75" s="50"/>
-      <c r="E75" s="51"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="62"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="23"/>
-      <c r="N75" s="30"/>
-      <c r="O75" s="30"/>
-      <c r="P75" s="30"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="43"/>
+      <c r="K75" s="43"/>
+      <c r="L75" s="43"/>
+      <c r="M75" s="44"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
       <c r="Q75" s="5"/>
       <c r="R75" s="5"/>
       <c r="S75" s="5"/>
@@ -2714,63 +2719,63 @@
       <c r="A76" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B76" s="42"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="25"/>
-      <c r="K76" s="25"/>
-      <c r="L76" s="25"/>
-      <c r="M76" s="26"/>
-      <c r="N76" s="32"/>
-      <c r="O76" s="32"/>
-      <c r="P76" s="32"/>
+      <c r="I76" s="45"/>
+      <c r="J76" s="46"/>
+      <c r="K76" s="46"/>
+      <c r="L76" s="46"/>
+      <c r="M76" s="47"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
       <c r="Q76" s="5"/>
       <c r="R76" s="5"/>
       <c r="S76" s="5"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
-      <c r="K77" s="20"/>
-      <c r="L77" s="20"/>
-      <c r="M77" s="21"/>
-      <c r="N77" s="28"/>
-      <c r="O77" s="28"/>
-      <c r="P77" s="28"/>
+      <c r="I77" s="48"/>
+      <c r="J77" s="40"/>
+      <c r="K77" s="40"/>
+      <c r="L77" s="40"/>
+      <c r="M77" s="41"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
       <c r="Q77" s="5"/>
       <c r="R77" s="5"/>
       <c r="S77" s="5"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="46"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="23"/>
-      <c r="N78" s="30"/>
-      <c r="O78" s="30"/>
-      <c r="P78" s="30"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="43"/>
+      <c r="K78" s="43"/>
+      <c r="L78" s="43"/>
+      <c r="M78" s="44"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
       <c r="Q78" s="5"/>
       <c r="R78" s="5"/>
       <c r="S78" s="5"/>
@@ -2779,63 +2784,63 @@
       <c r="A79" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B79" s="19"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="21"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="41"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="25"/>
-      <c r="K79" s="25"/>
-      <c r="L79" s="25"/>
-      <c r="M79" s="26"/>
-      <c r="N79" s="32"/>
-      <c r="O79" s="32"/>
-      <c r="P79" s="32"/>
+      <c r="I79" s="45"/>
+      <c r="J79" s="46"/>
+      <c r="K79" s="46"/>
+      <c r="L79" s="46"/>
+      <c r="M79" s="47"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="13"/>
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
       <c r="S79" s="5"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="23"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="44"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
-      <c r="K80" s="20"/>
-      <c r="L80" s="20"/>
-      <c r="M80" s="21"/>
-      <c r="N80" s="28"/>
-      <c r="O80" s="28"/>
-      <c r="P80" s="28"/>
+      <c r="I80" s="48"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="40"/>
+      <c r="L80" s="40"/>
+      <c r="M80" s="41"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10"/>
       <c r="Q80" s="5"/>
       <c r="R80" s="5"/>
       <c r="S80" s="5"/>
     </row>
     <row r="81" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="26"/>
+      <c r="B81" s="45"/>
+      <c r="C81" s="46"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="47"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="23"/>
-      <c r="N81" s="30"/>
-      <c r="O81" s="30"/>
-      <c r="P81" s="30"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="43"/>
+      <c r="K81" s="43"/>
+      <c r="L81" s="43"/>
+      <c r="M81" s="44"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
       <c r="Q81" s="5"/>
       <c r="R81" s="5"/>
       <c r="S81" s="5"/>
@@ -2849,14 +2854,14 @@
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
-      <c r="I82" s="24"/>
-      <c r="J82" s="25"/>
-      <c r="K82" s="25"/>
-      <c r="L82" s="25"/>
-      <c r="M82" s="26"/>
-      <c r="N82" s="32"/>
-      <c r="O82" s="32"/>
-      <c r="P82" s="32"/>
+      <c r="I82" s="45"/>
+      <c r="J82" s="46"/>
+      <c r="K82" s="46"/>
+      <c r="L82" s="46"/>
+      <c r="M82" s="47"/>
+      <c r="N82" s="13"/>
+      <c r="O82" s="13"/>
+      <c r="P82" s="13"/>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
       <c r="S82" s="5"/>
@@ -2870,14 +2875,14 @@
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="20"/>
-      <c r="L83" s="20"/>
-      <c r="M83" s="21"/>
-      <c r="N83" s="28"/>
-      <c r="O83" s="28"/>
-      <c r="P83" s="28"/>
+      <c r="I83" s="48"/>
+      <c r="J83" s="40"/>
+      <c r="K83" s="40"/>
+      <c r="L83" s="40"/>
+      <c r="M83" s="41"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="10"/>
+      <c r="P83" s="10"/>
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
       <c r="S83" s="5"/>
@@ -2891,14 +2896,14 @@
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="23"/>
-      <c r="N84" s="30"/>
-      <c r="O84" s="30"/>
-      <c r="P84" s="30"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="43"/>
+      <c r="K84" s="43"/>
+      <c r="L84" s="43"/>
+      <c r="M84" s="44"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
       <c r="Q84" s="5"/>
       <c r="R84" s="5"/>
       <c r="S84" s="5"/>
@@ -2912,27 +2917,70 @@
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="25"/>
-      <c r="K85" s="25"/>
-      <c r="L85" s="25"/>
-      <c r="M85" s="26"/>
-      <c r="N85" s="32"/>
-      <c r="O85" s="32"/>
-      <c r="P85" s="32"/>
+      <c r="I85" s="45"/>
+      <c r="J85" s="46"/>
+      <c r="K85" s="46"/>
+      <c r="L85" s="46"/>
+      <c r="M85" s="47"/>
+      <c r="N85" s="13"/>
+      <c r="O85" s="13"/>
+      <c r="P85" s="13"/>
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
       <c r="S85" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q34:S37"/>
-    <mergeCell ref="N34:P37"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="I3:M5"/>
+    <mergeCell ref="I6:M8"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="I9:M11"/>
+    <mergeCell ref="I12:M14"/>
+    <mergeCell ref="B5:E7"/>
+    <mergeCell ref="B8:E10"/>
+    <mergeCell ref="I17:M19"/>
+    <mergeCell ref="B19:E21"/>
+    <mergeCell ref="I20:M22"/>
+    <mergeCell ref="B22:E24"/>
+    <mergeCell ref="I23:M25"/>
+    <mergeCell ref="I34:M37"/>
+    <mergeCell ref="B37:E39"/>
+    <mergeCell ref="I38:M40"/>
+    <mergeCell ref="I26:M28"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="I30:M30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="I31:M33"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="I41:M43"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="I45:M45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="I46:M48"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E50"/>
+    <mergeCell ref="I49:M51"/>
+    <mergeCell ref="B51:E53"/>
+    <mergeCell ref="I52:M54"/>
+    <mergeCell ref="I55:M57"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="I59:M59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="I60:M62"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B62:E64"/>
+    <mergeCell ref="I63:M65"/>
+    <mergeCell ref="B65:E67"/>
+    <mergeCell ref="I66:M68"/>
     <mergeCell ref="I83:M85"/>
     <mergeCell ref="Q30:S30"/>
     <mergeCell ref="Q31:S33"/>
@@ -2949,56 +2997,13 @@
     <mergeCell ref="I77:M79"/>
     <mergeCell ref="B79:E81"/>
     <mergeCell ref="I80:M82"/>
-    <mergeCell ref="I55:M57"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="I59:M59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="I60:M62"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B62:E64"/>
-    <mergeCell ref="I63:M65"/>
-    <mergeCell ref="B65:E67"/>
-    <mergeCell ref="I66:M68"/>
-    <mergeCell ref="I41:M43"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="I45:M45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="I46:M48"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E50"/>
-    <mergeCell ref="I49:M51"/>
-    <mergeCell ref="B51:E53"/>
-    <mergeCell ref="I52:M54"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="I30:M30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="I31:M33"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="I34:M37"/>
-    <mergeCell ref="B37:E39"/>
-    <mergeCell ref="I38:M40"/>
-    <mergeCell ref="I26:M28"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="I9:M11"/>
-    <mergeCell ref="I12:M14"/>
-    <mergeCell ref="B5:E7"/>
-    <mergeCell ref="B8:E10"/>
-    <mergeCell ref="I17:M19"/>
-    <mergeCell ref="B19:E21"/>
-    <mergeCell ref="I20:M22"/>
-    <mergeCell ref="B22:E24"/>
-    <mergeCell ref="I23:M25"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="I3:M5"/>
-    <mergeCell ref="I6:M8"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q34:S37"/>
+    <mergeCell ref="N34:P37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Content/SQL/NBAdbToolbox Database documentation.xlsx
+++ b/Content/SQL/NBAdbToolbox Database documentation.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\derfj\Desktop\NBAdbToolbox\Content\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43D3F68-0E01-4B74-8A91-C523197A3D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2E0357-1DE5-482C-8EDF-E59583B0A4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3468E338-C2BE-4D61-9A1A-4F8A91A73365}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{3468E338-C2BE-4D61-9A1A-4F8A91A73365}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Db Docs" sheetId="1" r:id="rId1"/>
+    <sheet name="Historic Game Comparison" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="146">
   <si>
     <t>Database Notes</t>
   </si>
@@ -301,12 +302,348 @@
   <si>
     <t>Success</t>
   </si>
+  <si>
+    <t>GameCompNBAdb_H2</t>
+  </si>
+  <si>
+    <t>Benchmark insert speed and verify it still works after UI updates</t>
+  </si>
+  <si>
+    <t>First run after UI changes
+Created new DB from UI and populated in one go</t>
+  </si>
+  <si>
+    <t>SeasonID</t>
+  </si>
+  <si>
+    <t>TableRows</t>
+  </si>
+  <si>
+    <t>Rows</t>
+  </si>
+  <si>
+    <t>Game - 1314</t>
+  </si>
+  <si>
+    <t>GameExt - 1314</t>
+  </si>
+  <si>
+    <t>PBox - 38351</t>
+  </si>
+  <si>
+    <t>PBP - 619848</t>
+  </si>
+  <si>
+    <t>Season - 1314</t>
+  </si>
+  <si>
+    <t>SLineups - 33551</t>
+  </si>
+  <si>
+    <t>TBox - 2628</t>
+  </si>
+  <si>
+    <t>TboxLineups - 5256</t>
+  </si>
+  <si>
+    <t>Game - 1319</t>
+  </si>
+  <si>
+    <t>GameExt - 1319</t>
+  </si>
+  <si>
+    <t>PBox - 38712</t>
+  </si>
+  <si>
+    <t>PBP - 632199</t>
+  </si>
+  <si>
+    <t>Season - 1319</t>
+  </si>
+  <si>
+    <t>SLineups - 33683</t>
+  </si>
+  <si>
+    <t>TBox - 2638</t>
+  </si>
+  <si>
+    <t>TboxLineups - 5276</t>
+  </si>
+  <si>
+    <t>Game - 1311</t>
+  </si>
+  <si>
+    <t>GameExt - 1311</t>
+  </si>
+  <si>
+    <t>PBox - 38728</t>
+  </si>
+  <si>
+    <t>PBP - 633526</t>
+  </si>
+  <si>
+    <t>Season - 1311</t>
+  </si>
+  <si>
+    <t>SLineups - 33523</t>
+  </si>
+  <si>
+    <t>TBox - 2622</t>
+  </si>
+  <si>
+    <t>TboxLineups - 5244</t>
+  </si>
+  <si>
+    <t>Game - 1316</t>
+  </si>
+  <si>
+    <t>GameExt - 1316</t>
+  </si>
+  <si>
+    <t>PBox - 39124</t>
+  </si>
+  <si>
+    <t>PBP - 641644</t>
+  </si>
+  <si>
+    <t>Season - 1316</t>
+  </si>
+  <si>
+    <t>SLineups - 33659</t>
+  </si>
+  <si>
+    <t>TBox - 2632</t>
+  </si>
+  <si>
+    <t>TboxLineups - 5264</t>
+  </si>
+  <si>
+    <t>Game - 1309</t>
+  </si>
+  <si>
+    <t>GameExt - 1309</t>
+  </si>
+  <si>
+    <t>PBox - 39077</t>
+  </si>
+  <si>
+    <t>PBP - 636059</t>
+  </si>
+  <si>
+    <t>Season - 1309</t>
+  </si>
+  <si>
+    <t>SLineups - 33610</t>
+  </si>
+  <si>
+    <t>TBox - 2618</t>
+  </si>
+  <si>
+    <t>TboxLineups - 5236</t>
+  </si>
+  <si>
+    <t>PBox - 43115</t>
+  </si>
+  <si>
+    <t>PBP - 631695</t>
+  </si>
+  <si>
+    <t>SLineups - 33064</t>
+  </si>
+  <si>
+    <t>Game - 1312</t>
+  </si>
+  <si>
+    <t>GameExt - 1312</t>
+  </si>
+  <si>
+    <t>PBox - 42850</t>
+  </si>
+  <si>
+    <t>PBP - 654447</t>
+  </si>
+  <si>
+    <t>Season - 1312</t>
+  </si>
+  <si>
+    <t>SLineups - 32928</t>
+  </si>
+  <si>
+    <t>TBox - 2624</t>
+  </si>
+  <si>
+    <t>TboxLineups - 5248</t>
+  </si>
+  <si>
+    <t>Game - 1142</t>
+  </si>
+  <si>
+    <t>GameExt - 1142</t>
+  </si>
+  <si>
+    <t>PBox - 37902</t>
+  </si>
+  <si>
+    <t>PBP - 571071</t>
+  </si>
+  <si>
+    <t>Season - 1142</t>
+  </si>
+  <si>
+    <t>SLineups - 28682</t>
+  </si>
+  <si>
+    <t>TBox - 2284</t>
+  </si>
+  <si>
+    <t>TboxLineups - 4568</t>
+  </si>
+  <si>
+    <t>Game - 1171</t>
+  </si>
+  <si>
+    <t>GameExt - 1171</t>
+  </si>
+  <si>
+    <t>PBox - 38734</t>
+  </si>
+  <si>
+    <t>PBP - 570306</t>
+  </si>
+  <si>
+    <t>Season - 1171</t>
+  </si>
+  <si>
+    <t>SLineups - 31546</t>
+  </si>
+  <si>
+    <t>TBox - 2342</t>
+  </si>
+  <si>
+    <t>TboxLineups - 4684</t>
+  </si>
+  <si>
+    <t>Game - 1323</t>
+  </si>
+  <si>
+    <t>GameExt - 1323</t>
+  </si>
+  <si>
+    <t>PBox - 44738</t>
+  </si>
+  <si>
+    <t>PBP - 645450</t>
+  </si>
+  <si>
+    <t>Season - 1323</t>
+  </si>
+  <si>
+    <t>SLineups - 33848</t>
+  </si>
+  <si>
+    <t>TBox - 2646</t>
+  </si>
+  <si>
+    <t>TboxLineups - 5292</t>
+  </si>
+  <si>
+    <t>Game - 1320</t>
+  </si>
+  <si>
+    <t>GameExt - 1320</t>
+  </si>
+  <si>
+    <t>PBox - 43650</t>
+  </si>
+  <si>
+    <t>PBP - 646971</t>
+  </si>
+  <si>
+    <t>Season - 1320</t>
+  </si>
+  <si>
+    <t>SLineups - 34024</t>
+  </si>
+  <si>
+    <t>TBox - 2640</t>
+  </si>
+  <si>
+    <t>TboxLineups - 5280</t>
+  </si>
+  <si>
+    <t>Game - 1318</t>
+  </si>
+  <si>
+    <t>GameExt - 1318</t>
+  </si>
+  <si>
+    <t>PBox - 46048</t>
+  </si>
+  <si>
+    <t>PBP - 639893</t>
+  </si>
+  <si>
+    <t>Season - 1318</t>
+  </si>
+  <si>
+    <t>SLineups - 34815</t>
+  </si>
+  <si>
+    <t>TBox - 2636</t>
+  </si>
+  <si>
+    <t>TboxLineups - 5272</t>
+  </si>
+  <si>
+    <t>Game - 1275</t>
+  </si>
+  <si>
+    <t>GameExt - 1275</t>
+  </si>
+  <si>
+    <t>PBox - 44747</t>
+  </si>
+  <si>
+    <t>PBP - 628330</t>
+  </si>
+  <si>
+    <t>Season - 1277</t>
+  </si>
+  <si>
+    <t>SLineups - 33783</t>
+  </si>
+  <si>
+    <t>TBox - 2550</t>
+  </si>
+  <si>
+    <t>TboxLineups - 5100</t>
+  </si>
+  <si>
+    <t>Database:</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Run 1</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>Run 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,6 +696,21 @@
       <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -516,10 +868,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -576,6 +929,71 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -585,14 +1003,29 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -621,86 +1054,110 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -711,6 +1168,42 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D2257246-D817-49A6-B3A0-4FE25C2A8F4A}" name="Table1" displayName="Table1" ref="A4:C108" totalsRowShown="0">
+  <autoFilter ref="A4:C108" xr:uid="{D2257246-D817-49A6-B3A0-4FE25C2A8F4A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{2974B61D-41D6-4CAE-A012-79791A5A9E1F}" name="SeasonID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{6F136BAB-54BD-4222-A25D-A64E207EA865}" name="TableRows"/>
+    <tableColumn id="3" xr3:uid="{84A9E36E-C967-4DA1-848C-6FA57BECA571}" name="Rows" dataDxfId="2" dataCellStyle="Comma"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0E750E3B-8946-4F6C-83D9-AA30DF093B7E}" name="Table2" displayName="Table2" ref="E4:G108" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="E4:G108" xr:uid="{0E750E3B-8946-4F6C-83D9-AA30DF093B7E}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{EAC6ED57-1AF4-4619-BAE4-A77F8E23AEA6}" name="SeasonID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{E75BAB89-5B28-44F4-88E9-CA141BCE6B26}" name="TableRows"/>
+    <tableColumn id="3" xr3:uid="{F3FB3A0F-4532-41F8-89C0-1BF981F7249E}" name="Rows" dataDxfId="3" dataCellStyle="Comma"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{62C552E3-2CB5-4803-9502-A020F0FDD051}" name="Table3" displayName="Table3" ref="I4:K108" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="I4:K108" xr:uid="{62C552E3-2CB5-4803-9502-A020F0FDD051}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3596DC0F-39B7-4A71-BF8E-3FBCAE2E46AE}" name="SeasonID" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{E34AC549-BB10-484D-80C3-54CAB0CBA6EE}" name="TableRows"/>
+    <tableColumn id="3" xr3:uid="{3DD55E0F-554B-45A7-B45C-039611895ED5}" name="Rows"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1032,8 +1525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A67DDA6-2C9C-49F5-95FA-753F6A4815CC}">
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,32 +1550,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="8" customFormat="1" ht="63.75" x14ac:dyDescent="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
@@ -1092,34 +1585,34 @@
       <c r="H2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="27" t="s">
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="28"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="24" t="s">
+      <c r="O2" s="46"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="25"/>
-      <c r="S2" s="26"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="51"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="5">
         <v>1</v>
       </c>
@@ -1129,13 +1622,13 @@
       <c r="H3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="41"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="14"/>
@@ -1146,20 +1639,20 @@
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="44"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="41"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
@@ -1171,20 +1664,20 @@
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="47"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="44"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
@@ -1194,10 +1687,10 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="5">
         <v>2</v>
       </c>
@@ -1207,11 +1700,11 @@
       <c r="H6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="41"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="38"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
@@ -1221,18 +1714,18 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="44"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="41"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -1244,20 +1737,20 @@
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="47"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="44"/>
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
@@ -1267,18 +1760,18 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="41"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="38"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
@@ -1288,18 +1781,18 @@
     </row>
     <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="44"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="41"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
@@ -1316,11 +1809,11 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="47"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
@@ -1337,11 +1830,11 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="41"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="38"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -1358,11 +1851,11 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="44"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="41"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
@@ -1379,11 +1872,11 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="47"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="44"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
@@ -1392,11 +1885,11 @@
       <c r="S14" s="5"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="59"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="6" t="s">
         <v>13</v>
       </c>
@@ -1406,34 +1899,34 @@
       <c r="H16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="27" t="s">
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="O16" s="28"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="24" t="s">
+      <c r="O16" s="46"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="R16" s="25"/>
-      <c r="S16" s="26"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="51"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="62"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="5">
         <v>1</v>
       </c>
@@ -1443,84 +1936,84 @@
       <c r="H17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="I17" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="41"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="38"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="41"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="38"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="62"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="44"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="41"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="44"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="41"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="47"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="44"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="47"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="44"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="41"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="38"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
@@ -1530,18 +2023,18 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="44"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="41"/>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
@@ -1553,18 +2046,18 @@
       <c r="A22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="41"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="47"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="44"/>
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
       <c r="P22" s="13"/>
@@ -1574,18 +2067,18 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="41"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="41"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="38"/>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
@@ -1595,18 +2088,18 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="47"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="44"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="44"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="41"/>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
@@ -1623,11 +2116,11 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="47"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="44"/>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
       <c r="P25" s="13"/>
@@ -1644,11 +2137,11 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="41"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="38"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
@@ -1665,11 +2158,11 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="44"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="41"/>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
@@ -1686,11 +2179,11 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="47"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="44"/>
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
       <c r="P28" s="13"/>
@@ -1699,11 +2192,11 @@
       <c r="S28" s="5"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="59"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="34"/>
       <c r="F30" s="6" t="s">
         <v>13</v>
       </c>
@@ -1713,34 +2206,34 @@
       <c r="H30" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="27" t="s">
+      <c r="I30" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="27" t="s">
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="O30" s="28"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="24" t="s">
+      <c r="O30" s="46"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="R30" s="25"/>
-      <c r="S30" s="26"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="51"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="62"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="31"/>
       <c r="F31" s="5">
         <v>1</v>
       </c>
@@ -1750,78 +2243,78 @@
       <c r="H31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I31" s="39" t="s">
+      <c r="I31" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="41"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="38"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
-      <c r="Q31" s="48" t="s">
+      <c r="Q31" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="R31" s="40"/>
-      <c r="S31" s="41"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="38"/>
     </row>
     <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="62"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="44"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="41"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="44"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="41"/>
     </row>
     <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="50"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="53"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="47"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="44"/>
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
       <c r="P33" s="12"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="47"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="44"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="53"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="56"/>
       <c r="F34" s="5">
         <v>2</v>
       </c>
@@ -1831,95 +2324,95 @@
       <c r="H34" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I34" s="39" t="s">
+      <c r="I34" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="39" t="s">
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="32"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="61"/>
+      <c r="S34" s="62"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="53"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="56"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="35"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="65"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="56"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="59"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="44"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="35"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="65"/>
     </row>
     <row r="37" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="41"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="38"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="38"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="66"/>
+      <c r="R37" s="67"/>
+      <c r="S37" s="68"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="44"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="41"/>
       <c r="F38" s="5">
         <v>3</v>
       </c>
@@ -1929,13 +2422,13 @@
       <c r="H38" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="48" t="s">
+      <c r="I38" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="41"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="38"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
@@ -1945,18 +2438,18 @@
     </row>
     <row r="39" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="47"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="44"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="44"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="41"/>
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
@@ -1973,11 +2466,11 @@
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="47"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="44"/>
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
       <c r="P40" s="13"/>
@@ -1994,11 +2487,11 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="41"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="38"/>
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
@@ -2015,11 +2508,11 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="44"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="41"/>
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
@@ -2036,11 +2529,11 @@
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="47"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="44"/>
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
       <c r="P43" s="13"/>
@@ -2049,11 +2542,11 @@
       <c r="S43" s="5"/>
     </row>
     <row r="45" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="57"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="59"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="34"/>
       <c r="F45" s="6" t="s">
         <v>13</v>
       </c>
@@ -2063,18 +2556,18 @@
       <c r="H45" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="27" t="s">
+      <c r="I45" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="27" t="s">
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="O45" s="28"/>
-      <c r="P45" s="29"/>
+      <c r="O45" s="46"/>
+      <c r="P45" s="47"/>
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
@@ -2083,20 +2576,28 @@
       <c r="A46" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="60"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="62"/>
+      <c r="B46" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="31"/>
       <c r="F46" s="5">
         <v>1</v>
       </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="41"/>
+      <c r="G46" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="38"/>
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
@@ -2108,20 +2609,20 @@
       <c r="A47" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="60" t="s">
+      <c r="B47" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="62"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="31"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="44"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="41"/>
       <c r="N47" s="11"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
@@ -2133,18 +2634,20 @@
       <c r="A48" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
+      <c r="B48" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="47"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="44"/>
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
       <c r="P48" s="13"/>
@@ -2154,18 +2657,18 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="41"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="38"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
@@ -2175,18 +2678,18 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
-      <c r="M50" s="44"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="41"/>
       <c r="N50" s="11"/>
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
@@ -2198,18 +2701,18 @@
       <c r="A51" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="48"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="41"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="38"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="46"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="46"/>
-      <c r="M51" s="47"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="44"/>
       <c r="N51" s="13"/>
       <c r="O51" s="13"/>
       <c r="P51" s="13"/>
@@ -2219,18 +2722,18 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="44"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="41"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="41"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="38"/>
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
@@ -2240,18 +2743,18 @@
     </row>
     <row r="53" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="47"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="44"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="43"/>
-      <c r="M53" s="44"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="41"/>
       <c r="N53" s="11"/>
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
@@ -2268,11 +2771,11 @@
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="46"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="46"/>
-      <c r="M54" s="47"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="44"/>
       <c r="N54" s="13"/>
       <c r="O54" s="13"/>
       <c r="P54" s="13"/>
@@ -2289,11 +2792,11 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="40"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="41"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="38"/>
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
@@ -2310,11 +2813,11 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="43"/>
-      <c r="K56" s="43"/>
-      <c r="L56" s="43"/>
-      <c r="M56" s="44"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="41"/>
       <c r="N56" s="11"/>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
@@ -2331,11 +2834,11 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="46"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="46"/>
-      <c r="M57" s="47"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="44"/>
       <c r="N57" s="13"/>
       <c r="O57" s="13"/>
       <c r="P57" s="13"/>
@@ -2344,11 +2847,11 @@
       <c r="S57" s="5"/>
     </row>
     <row r="59" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="57"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="59"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="34"/>
       <c r="F59" s="6" t="s">
         <v>13</v>
       </c>
@@ -2358,13 +2861,13 @@
       <c r="H59" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I59" s="27" t="s">
+      <c r="I59" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="29"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="47"/>
       <c r="N59" s="23"/>
       <c r="O59" s="23"/>
       <c r="P59" s="23"/>
@@ -2376,20 +2879,20 @@
       <c r="A60" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="60"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="62"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="31"/>
       <c r="F60" s="5">
         <v>1</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="40"/>
-      <c r="K60" s="40"/>
-      <c r="L60" s="40"/>
-      <c r="M60" s="41"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="38"/>
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
@@ -2401,20 +2904,20 @@
       <c r="A61" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="60" t="s">
+      <c r="B61" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="61"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="62"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="31"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="43"/>
-      <c r="K61" s="43"/>
-      <c r="L61" s="43"/>
-      <c r="M61" s="44"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="41"/>
       <c r="N61" s="11"/>
       <c r="O61" s="11"/>
       <c r="P61" s="11"/>
@@ -2426,18 +2929,18 @@
       <c r="A62" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B62" s="39"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
-      <c r="I62" s="45"/>
-      <c r="J62" s="46"/>
-      <c r="K62" s="46"/>
-      <c r="L62" s="46"/>
-      <c r="M62" s="47"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="43"/>
+      <c r="L62" s="43"/>
+      <c r="M62" s="44"/>
       <c r="N62" s="13"/>
       <c r="O62" s="13"/>
       <c r="P62" s="13"/>
@@ -2447,18 +2950,18 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="43"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="40"/>
-      <c r="K63" s="40"/>
-      <c r="L63" s="40"/>
-      <c r="M63" s="41"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="38"/>
       <c r="N63" s="10"/>
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
@@ -2468,18 +2971,18 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
-      <c r="B64" s="45"/>
-      <c r="C64" s="46"/>
-      <c r="D64" s="46"/>
-      <c r="E64" s="46"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="43"/>
-      <c r="K64" s="43"/>
-      <c r="L64" s="43"/>
-      <c r="M64" s="44"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="40"/>
+      <c r="M64" s="41"/>
       <c r="N64" s="11"/>
       <c r="O64" s="11"/>
       <c r="P64" s="11"/>
@@ -2491,18 +2994,18 @@
       <c r="A65" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="48"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="41"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="38"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
-      <c r="I65" s="45"/>
-      <c r="J65" s="46"/>
-      <c r="K65" s="46"/>
-      <c r="L65" s="46"/>
-      <c r="M65" s="47"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="43"/>
+      <c r="M65" s="44"/>
       <c r="N65" s="13"/>
       <c r="O65" s="13"/>
       <c r="P65" s="13"/>
@@ -2512,18 +3015,18 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="44"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="41"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="40"/>
-      <c r="K66" s="40"/>
-      <c r="L66" s="40"/>
-      <c r="M66" s="41"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="37"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="38"/>
       <c r="N66" s="10"/>
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
@@ -2533,18 +3036,18 @@
     </row>
     <row r="67" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
-      <c r="B67" s="45"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="47"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="44"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="43"/>
-      <c r="K67" s="43"/>
-      <c r="L67" s="43"/>
-      <c r="M67" s="44"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="40"/>
+      <c r="K67" s="40"/>
+      <c r="L67" s="40"/>
+      <c r="M67" s="41"/>
       <c r="N67" s="11"/>
       <c r="O67" s="11"/>
       <c r="P67" s="11"/>
@@ -2561,11 +3064,11 @@
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
-      <c r="I68" s="45"/>
-      <c r="J68" s="46"/>
-      <c r="K68" s="46"/>
-      <c r="L68" s="46"/>
-      <c r="M68" s="47"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="43"/>
+      <c r="M68" s="44"/>
       <c r="N68" s="13"/>
       <c r="O68" s="13"/>
       <c r="P68" s="13"/>
@@ -2582,11 +3085,11 @@
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="40"/>
-      <c r="K69" s="40"/>
-      <c r="L69" s="40"/>
-      <c r="M69" s="41"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="38"/>
       <c r="N69" s="10"/>
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
@@ -2603,11 +3106,11 @@
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
-      <c r="I70" s="42"/>
-      <c r="J70" s="43"/>
-      <c r="K70" s="43"/>
-      <c r="L70" s="43"/>
-      <c r="M70" s="44"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="40"/>
+      <c r="K70" s="40"/>
+      <c r="L70" s="40"/>
+      <c r="M70" s="41"/>
       <c r="N70" s="11"/>
       <c r="O70" s="11"/>
       <c r="P70" s="11"/>
@@ -2624,11 +3127,11 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
-      <c r="I71" s="45"/>
-      <c r="J71" s="46"/>
-      <c r="K71" s="46"/>
-      <c r="L71" s="46"/>
-      <c r="M71" s="47"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="44"/>
       <c r="N71" s="13"/>
       <c r="O71" s="13"/>
       <c r="P71" s="13"/>
@@ -2637,11 +3140,11 @@
       <c r="S71" s="5"/>
     </row>
     <row r="73" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="57"/>
-      <c r="B73" s="58"/>
-      <c r="C73" s="58"/>
-      <c r="D73" s="58"/>
-      <c r="E73" s="59"/>
+      <c r="A73" s="32"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="34"/>
       <c r="F73" s="6" t="s">
         <v>13</v>
       </c>
@@ -2651,13 +3154,13 @@
       <c r="H73" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I73" s="27" t="s">
+      <c r="I73" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="28"/>
-      <c r="M73" s="29"/>
+      <c r="J73" s="46"/>
+      <c r="K73" s="46"/>
+      <c r="L73" s="46"/>
+      <c r="M73" s="47"/>
       <c r="N73" s="23"/>
       <c r="O73" s="23"/>
       <c r="P73" s="23"/>
@@ -2669,20 +3172,20 @@
       <c r="A74" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="60"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="62"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="31"/>
       <c r="F74" s="5">
         <v>1</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
-      <c r="I74" s="39"/>
-      <c r="J74" s="40"/>
-      <c r="K74" s="40"/>
-      <c r="L74" s="40"/>
-      <c r="M74" s="41"/>
+      <c r="I74" s="48"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="38"/>
       <c r="N74" s="10"/>
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
@@ -2694,20 +3197,20 @@
       <c r="A75" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="60" t="s">
+      <c r="B75" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C75" s="61"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="62"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="31"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="43"/>
-      <c r="K75" s="43"/>
-      <c r="L75" s="43"/>
-      <c r="M75" s="44"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="40"/>
+      <c r="L75" s="40"/>
+      <c r="M75" s="41"/>
       <c r="N75" s="11"/>
       <c r="O75" s="11"/>
       <c r="P75" s="11"/>
@@ -2719,18 +3222,18 @@
       <c r="A76" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B76" s="39"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
+      <c r="B76" s="48"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
-      <c r="I76" s="45"/>
-      <c r="J76" s="46"/>
-      <c r="K76" s="46"/>
-      <c r="L76" s="46"/>
-      <c r="M76" s="47"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="43"/>
+      <c r="K76" s="43"/>
+      <c r="L76" s="43"/>
+      <c r="M76" s="44"/>
       <c r="N76" s="13"/>
       <c r="O76" s="13"/>
       <c r="P76" s="13"/>
@@ -2740,18 +3243,18 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
-      <c r="B77" s="42"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
-      <c r="I77" s="48"/>
-      <c r="J77" s="40"/>
-      <c r="K77" s="40"/>
-      <c r="L77" s="40"/>
-      <c r="M77" s="41"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="37"/>
+      <c r="K77" s="37"/>
+      <c r="L77" s="37"/>
+      <c r="M77" s="38"/>
       <c r="N77" s="10"/>
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
@@ -2761,18 +3264,18 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
-      <c r="B78" s="45"/>
-      <c r="C78" s="46"/>
-      <c r="D78" s="46"/>
-      <c r="E78" s="46"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="43"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="43"/>
-      <c r="K78" s="43"/>
-      <c r="L78" s="43"/>
-      <c r="M78" s="44"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="40"/>
+      <c r="K78" s="40"/>
+      <c r="L78" s="40"/>
+      <c r="M78" s="41"/>
       <c r="N78" s="11"/>
       <c r="O78" s="11"/>
       <c r="P78" s="11"/>
@@ -2784,18 +3287,18 @@
       <c r="A79" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B79" s="48"/>
-      <c r="C79" s="40"/>
-      <c r="D79" s="40"/>
-      <c r="E79" s="41"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="38"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
-      <c r="I79" s="45"/>
-      <c r="J79" s="46"/>
-      <c r="K79" s="46"/>
-      <c r="L79" s="46"/>
-      <c r="M79" s="47"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="43"/>
+      <c r="K79" s="43"/>
+      <c r="L79" s="43"/>
+      <c r="M79" s="44"/>
       <c r="N79" s="13"/>
       <c r="O79" s="13"/>
       <c r="P79" s="13"/>
@@ -2805,18 +3308,18 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
-      <c r="B80" s="42"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="44"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="41"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
-      <c r="I80" s="48"/>
-      <c r="J80" s="40"/>
-      <c r="K80" s="40"/>
-      <c r="L80" s="40"/>
-      <c r="M80" s="41"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="37"/>
+      <c r="K80" s="37"/>
+      <c r="L80" s="37"/>
+      <c r="M80" s="38"/>
       <c r="N80" s="10"/>
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
@@ -2826,18 +3329,18 @@
     </row>
     <row r="81" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
-      <c r="B81" s="45"/>
-      <c r="C81" s="46"/>
-      <c r="D81" s="46"/>
-      <c r="E81" s="47"/>
+      <c r="B81" s="42"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="44"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
-      <c r="I81" s="42"/>
-      <c r="J81" s="43"/>
-      <c r="K81" s="43"/>
-      <c r="L81" s="43"/>
-      <c r="M81" s="44"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="40"/>
+      <c r="K81" s="40"/>
+      <c r="L81" s="40"/>
+      <c r="M81" s="41"/>
       <c r="N81" s="11"/>
       <c r="O81" s="11"/>
       <c r="P81" s="11"/>
@@ -2854,11 +3357,11 @@
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
-      <c r="I82" s="45"/>
-      <c r="J82" s="46"/>
-      <c r="K82" s="46"/>
-      <c r="L82" s="46"/>
-      <c r="M82" s="47"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="43"/>
+      <c r="K82" s="43"/>
+      <c r="L82" s="43"/>
+      <c r="M82" s="44"/>
       <c r="N82" s="13"/>
       <c r="O82" s="13"/>
       <c r="P82" s="13"/>
@@ -2875,11 +3378,11 @@
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
-      <c r="I83" s="48"/>
-      <c r="J83" s="40"/>
-      <c r="K83" s="40"/>
-      <c r="L83" s="40"/>
-      <c r="M83" s="41"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="37"/>
+      <c r="K83" s="37"/>
+      <c r="L83" s="37"/>
+      <c r="M83" s="38"/>
       <c r="N83" s="10"/>
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
@@ -2896,11 +3399,11 @@
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
-      <c r="I84" s="42"/>
-      <c r="J84" s="43"/>
-      <c r="K84" s="43"/>
-      <c r="L84" s="43"/>
-      <c r="M84" s="44"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="40"/>
+      <c r="K84" s="40"/>
+      <c r="L84" s="40"/>
+      <c r="M84" s="41"/>
       <c r="N84" s="11"/>
       <c r="O84" s="11"/>
       <c r="P84" s="11"/>
@@ -2917,11 +3420,11 @@
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
-      <c r="I85" s="45"/>
-      <c r="J85" s="46"/>
-      <c r="K85" s="46"/>
-      <c r="L85" s="46"/>
-      <c r="M85" s="47"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="43"/>
+      <c r="K85" s="43"/>
+      <c r="L85" s="43"/>
+      <c r="M85" s="44"/>
       <c r="N85" s="13"/>
       <c r="O85" s="13"/>
       <c r="P85" s="13"/>
@@ -2931,56 +3434,13 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="I3:M5"/>
-    <mergeCell ref="I6:M8"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="I9:M11"/>
-    <mergeCell ref="I12:M14"/>
-    <mergeCell ref="B5:E7"/>
-    <mergeCell ref="B8:E10"/>
-    <mergeCell ref="I17:M19"/>
-    <mergeCell ref="B19:E21"/>
-    <mergeCell ref="I20:M22"/>
-    <mergeCell ref="B22:E24"/>
-    <mergeCell ref="I23:M25"/>
-    <mergeCell ref="I34:M37"/>
-    <mergeCell ref="B37:E39"/>
-    <mergeCell ref="I38:M40"/>
-    <mergeCell ref="I26:M28"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="I30:M30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="I31:M33"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="I41:M43"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="I45:M45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="I46:M48"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E50"/>
-    <mergeCell ref="I49:M51"/>
-    <mergeCell ref="B51:E53"/>
-    <mergeCell ref="I52:M54"/>
-    <mergeCell ref="I55:M57"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="I59:M59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="I60:M62"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B62:E64"/>
-    <mergeCell ref="I63:M65"/>
-    <mergeCell ref="B65:E67"/>
-    <mergeCell ref="I66:M68"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q34:S37"/>
+    <mergeCell ref="N34:P37"/>
     <mergeCell ref="I83:M85"/>
     <mergeCell ref="Q30:S30"/>
     <mergeCell ref="Q31:S33"/>
@@ -2997,14 +3457,4432 @@
     <mergeCell ref="I77:M79"/>
     <mergeCell ref="B79:E81"/>
     <mergeCell ref="I80:M82"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q34:S37"/>
-    <mergeCell ref="N34:P37"/>
+    <mergeCell ref="I55:M57"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="I59:M59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="I60:M62"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B62:E64"/>
+    <mergeCell ref="I63:M65"/>
+    <mergeCell ref="B65:E67"/>
+    <mergeCell ref="I66:M68"/>
+    <mergeCell ref="I41:M43"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="I45:M45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="I46:M48"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E50"/>
+    <mergeCell ref="I49:M51"/>
+    <mergeCell ref="B51:E53"/>
+    <mergeCell ref="I52:M54"/>
+    <mergeCell ref="I34:M37"/>
+    <mergeCell ref="B37:E39"/>
+    <mergeCell ref="I38:M40"/>
+    <mergeCell ref="I26:M28"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="I30:M30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="I31:M33"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="I17:M19"/>
+    <mergeCell ref="B19:E21"/>
+    <mergeCell ref="I20:M22"/>
+    <mergeCell ref="B22:E24"/>
+    <mergeCell ref="I23:M25"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="I3:M5"/>
+    <mergeCell ref="I6:M8"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="I9:M11"/>
+    <mergeCell ref="I12:M14"/>
+    <mergeCell ref="B5:E7"/>
+    <mergeCell ref="B8:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A632B31-061B-460B-BDC9-602F6429F751}">
+  <dimension ref="A1:O108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="28">
+        <v>45784.864583333336</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="E1" s="28">
+        <v>45784.916666666664</v>
+      </c>
+      <c r="I1" s="28">
+        <v>45785.333333333336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <v>2012</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="69">
+        <v>1314</v>
+      </c>
+      <c r="E5" s="25">
+        <v>2012</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="69">
+        <v>1314</v>
+      </c>
+      <c r="I5" s="25">
+        <v>2012</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5">
+        <v>1314</v>
+      </c>
+      <c r="M5" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2012 Game - 1314</v>
+      </c>
+      <c r="N5" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2012 Game - 1314</v>
+      </c>
+      <c r="O5" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2012 Game - 1314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>2012</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="69">
+        <v>1314</v>
+      </c>
+      <c r="E6" s="25">
+        <v>2012</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="69">
+        <v>1314</v>
+      </c>
+      <c r="I6" s="25">
+        <v>2012</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6">
+        <v>1314</v>
+      </c>
+      <c r="M6" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2012 GameExt - 1314</v>
+      </c>
+      <c r="N6" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2012 GameExt - 1314</v>
+      </c>
+      <c r="O6" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2012 GameExt - 1314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <v>2012</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="69">
+        <v>38351</v>
+      </c>
+      <c r="E7" s="25">
+        <v>2012</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="69">
+        <v>38351</v>
+      </c>
+      <c r="I7" s="25">
+        <v>2012</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7">
+        <v>38351</v>
+      </c>
+      <c r="M7" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2012 PBox - 38351</v>
+      </c>
+      <c r="N7" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2012 PBox - 38351</v>
+      </c>
+      <c r="O7" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2012 PBox - 38351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
+        <v>2012</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="69">
+        <v>619848</v>
+      </c>
+      <c r="E8" s="25">
+        <v>2012</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="69">
+        <v>619848</v>
+      </c>
+      <c r="I8" s="25">
+        <v>2012</v>
+      </c>
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8">
+        <v>619848</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2012 PBP - 619848</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2012 PBP - 619848</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2012 PBP - 619848</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="25">
+        <v>2012</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="69">
+        <v>1314</v>
+      </c>
+      <c r="E9" s="25">
+        <v>2012</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="69">
+        <v>1314</v>
+      </c>
+      <c r="I9" s="25">
+        <v>2012</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9">
+        <v>1314</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2012 Season - 1314</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2012 Season - 1314</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2012 Season - 1314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
+        <v>2012</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="69">
+        <v>33551</v>
+      </c>
+      <c r="E10" s="25">
+        <v>2012</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="69">
+        <v>33551</v>
+      </c>
+      <c r="I10" s="25">
+        <v>2012</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10">
+        <v>33551</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2012 SLineups - 33551</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2012 SLineups - 33551</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2012 SLineups - 33551</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
+        <v>2012</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="69">
+        <v>2628</v>
+      </c>
+      <c r="E11" s="25">
+        <v>2012</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="69">
+        <v>2628</v>
+      </c>
+      <c r="I11" s="25">
+        <v>2012</v>
+      </c>
+      <c r="J11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11">
+        <v>2628</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2012 TBox - 2628</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2012 TBox - 2628</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2012 TBox - 2628</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
+        <v>2012</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="69">
+        <v>5256</v>
+      </c>
+      <c r="E12" s="25">
+        <v>2012</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="69">
+        <v>5256</v>
+      </c>
+      <c r="I12" s="25">
+        <v>2012</v>
+      </c>
+      <c r="J12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12">
+        <v>5256</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2012 TboxLineups - 5256</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2012 TboxLineups - 5256</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2012 TboxLineups - 5256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="25">
+        <v>2013</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="69">
+        <v>1319</v>
+      </c>
+      <c r="E13" s="25">
+        <v>2013</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="69">
+        <v>1319</v>
+      </c>
+      <c r="I13" s="25">
+        <v>2013</v>
+      </c>
+      <c r="J13" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13">
+        <v>1319</v>
+      </c>
+      <c r="M13" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2013 Game - 1319</v>
+      </c>
+      <c r="N13" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2013 Game - 1319</v>
+      </c>
+      <c r="O13" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2013 Game - 1319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
+        <v>2013</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="69">
+        <v>1319</v>
+      </c>
+      <c r="E14" s="25">
+        <v>2013</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="69">
+        <v>1319</v>
+      </c>
+      <c r="I14" s="25">
+        <v>2013</v>
+      </c>
+      <c r="J14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14">
+        <v>1319</v>
+      </c>
+      <c r="M14" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2013 GameExt - 1319</v>
+      </c>
+      <c r="N14" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2013 GameExt - 1319</v>
+      </c>
+      <c r="O14" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2013 GameExt - 1319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="25">
+        <v>2013</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="69">
+        <v>38712</v>
+      </c>
+      <c r="E15" s="25">
+        <v>2013</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="69">
+        <v>38712</v>
+      </c>
+      <c r="I15" s="25">
+        <v>2013</v>
+      </c>
+      <c r="J15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15">
+        <v>38712</v>
+      </c>
+      <c r="M15" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2013 PBox - 38712</v>
+      </c>
+      <c r="N15" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2013 PBox - 38712</v>
+      </c>
+      <c r="O15" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2013 PBox - 38712</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="25">
+        <v>2013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="69">
+        <v>632199</v>
+      </c>
+      <c r="E16" s="25">
+        <v>2013</v>
+      </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="69">
+        <v>632199</v>
+      </c>
+      <c r="I16" s="25">
+        <v>2013</v>
+      </c>
+      <c r="J16" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16">
+        <v>632199</v>
+      </c>
+      <c r="M16" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2013 PBP - 632199</v>
+      </c>
+      <c r="N16" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2013 PBP - 632199</v>
+      </c>
+      <c r="O16" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2013 PBP - 632199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
+        <v>2013</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="69">
+        <v>1319</v>
+      </c>
+      <c r="E17" s="25">
+        <v>2013</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="69">
+        <v>1319</v>
+      </c>
+      <c r="I17" s="25">
+        <v>2013</v>
+      </c>
+      <c r="J17" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17">
+        <v>1319</v>
+      </c>
+      <c r="M17" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2013 Season - 1319</v>
+      </c>
+      <c r="N17" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2013 Season - 1319</v>
+      </c>
+      <c r="O17" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2013 Season - 1319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
+        <v>2013</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="69">
+        <v>33683</v>
+      </c>
+      <c r="E18" s="25">
+        <v>2013</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="69">
+        <v>33683</v>
+      </c>
+      <c r="I18" s="25">
+        <v>2013</v>
+      </c>
+      <c r="J18" t="s">
+        <v>55</v>
+      </c>
+      <c r="K18">
+        <v>33683</v>
+      </c>
+      <c r="M18" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2013 SLineups - 33683</v>
+      </c>
+      <c r="N18" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2013 SLineups - 33683</v>
+      </c>
+      <c r="O18" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2013 SLineups - 33683</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
+        <v>2013</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="69">
+        <v>2638</v>
+      </c>
+      <c r="E19" s="25">
+        <v>2013</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="69">
+        <v>2638</v>
+      </c>
+      <c r="I19" s="25">
+        <v>2013</v>
+      </c>
+      <c r="J19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19">
+        <v>2638</v>
+      </c>
+      <c r="M19" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2013 TBox - 2638</v>
+      </c>
+      <c r="N19" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2013 TBox - 2638</v>
+      </c>
+      <c r="O19" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2013 TBox - 2638</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="25">
+        <v>2013</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="69">
+        <v>5276</v>
+      </c>
+      <c r="E20" s="25">
+        <v>2013</v>
+      </c>
+      <c r="F20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="69">
+        <v>5276</v>
+      </c>
+      <c r="I20" s="25">
+        <v>2013</v>
+      </c>
+      <c r="J20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20">
+        <v>5276</v>
+      </c>
+      <c r="M20" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2013 TboxLineups - 5276</v>
+      </c>
+      <c r="N20" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2013 TboxLineups - 5276</v>
+      </c>
+      <c r="O20" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2013 TboxLineups - 5276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
+        <v>2014</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="69">
+        <v>1311</v>
+      </c>
+      <c r="E21" s="25">
+        <v>2014</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="69">
+        <v>1311</v>
+      </c>
+      <c r="I21" s="25">
+        <v>2014</v>
+      </c>
+      <c r="J21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21">
+        <v>1311</v>
+      </c>
+      <c r="M21" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2014 Game - 1311</v>
+      </c>
+      <c r="N21" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2014 Game - 1311</v>
+      </c>
+      <c r="O21" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2014 Game - 1311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="25">
+        <v>2014</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="69">
+        <v>1311</v>
+      </c>
+      <c r="E22" s="25">
+        <v>2014</v>
+      </c>
+      <c r="F22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="69">
+        <v>1311</v>
+      </c>
+      <c r="I22" s="25">
+        <v>2014</v>
+      </c>
+      <c r="J22" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22">
+        <v>1311</v>
+      </c>
+      <c r="M22" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2014 GameExt - 1311</v>
+      </c>
+      <c r="N22" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2014 GameExt - 1311</v>
+      </c>
+      <c r="O22" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2014 GameExt - 1311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="25">
+        <v>2014</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="69">
+        <v>38728</v>
+      </c>
+      <c r="E23" s="25">
+        <v>2014</v>
+      </c>
+      <c r="F23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="69">
+        <v>38728</v>
+      </c>
+      <c r="I23" s="25">
+        <v>2014</v>
+      </c>
+      <c r="J23" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23">
+        <v>38728</v>
+      </c>
+      <c r="M23" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2014 PBox - 38728</v>
+      </c>
+      <c r="N23" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2014 PBox - 38728</v>
+      </c>
+      <c r="O23" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2014 PBox - 38728</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="25">
+        <v>2014</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="69">
+        <v>633526</v>
+      </c>
+      <c r="E24" s="25">
+        <v>2014</v>
+      </c>
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="69">
+        <v>633526</v>
+      </c>
+      <c r="I24" s="25">
+        <v>2014</v>
+      </c>
+      <c r="J24" t="s">
+        <v>61</v>
+      </c>
+      <c r="K24">
+        <v>633526</v>
+      </c>
+      <c r="M24" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2014 PBP - 633526</v>
+      </c>
+      <c r="N24" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2014 PBP - 633526</v>
+      </c>
+      <c r="O24" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2014 PBP - 633526</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="25">
+        <v>2014</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="69">
+        <v>1311</v>
+      </c>
+      <c r="E25" s="25">
+        <v>2014</v>
+      </c>
+      <c r="F25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="69">
+        <v>1311</v>
+      </c>
+      <c r="I25" s="25">
+        <v>2014</v>
+      </c>
+      <c r="J25" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25">
+        <v>1311</v>
+      </c>
+      <c r="M25" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2014 Season - 1311</v>
+      </c>
+      <c r="N25" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2014 Season - 1311</v>
+      </c>
+      <c r="O25" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2014 Season - 1311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="25">
+        <v>2014</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="69">
+        <v>33523</v>
+      </c>
+      <c r="E26" s="25">
+        <v>2014</v>
+      </c>
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="69">
+        <v>33523</v>
+      </c>
+      <c r="I26" s="25">
+        <v>2014</v>
+      </c>
+      <c r="J26" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26">
+        <v>33523</v>
+      </c>
+      <c r="M26" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2014 SLineups - 33523</v>
+      </c>
+      <c r="N26" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2014 SLineups - 33523</v>
+      </c>
+      <c r="O26" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2014 SLineups - 33523</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="25">
+        <v>2014</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="69">
+        <v>2622</v>
+      </c>
+      <c r="E27" s="25">
+        <v>2014</v>
+      </c>
+      <c r="F27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="69">
+        <v>2622</v>
+      </c>
+      <c r="I27" s="25">
+        <v>2014</v>
+      </c>
+      <c r="J27" t="s">
+        <v>64</v>
+      </c>
+      <c r="K27">
+        <v>2622</v>
+      </c>
+      <c r="M27" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2014 TBox - 2622</v>
+      </c>
+      <c r="N27" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2014 TBox - 2622</v>
+      </c>
+      <c r="O27" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2014 TBox - 2622</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="25">
+        <v>2014</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="69">
+        <v>5244</v>
+      </c>
+      <c r="E28" s="25">
+        <v>2014</v>
+      </c>
+      <c r="F28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="69">
+        <v>5244</v>
+      </c>
+      <c r="I28" s="25">
+        <v>2014</v>
+      </c>
+      <c r="J28" t="s">
+        <v>65</v>
+      </c>
+      <c r="K28">
+        <v>5244</v>
+      </c>
+      <c r="M28" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2014 TboxLineups - 5244</v>
+      </c>
+      <c r="N28" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2014 TboxLineups - 5244</v>
+      </c>
+      <c r="O28" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2014 TboxLineups - 5244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="25">
+        <v>2015</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="69">
+        <v>1316</v>
+      </c>
+      <c r="E29" s="25">
+        <v>2015</v>
+      </c>
+      <c r="F29" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="69">
+        <v>1316</v>
+      </c>
+      <c r="I29" s="25">
+        <v>2015</v>
+      </c>
+      <c r="J29" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29">
+        <v>1316</v>
+      </c>
+      <c r="M29" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2015 Game - 1316</v>
+      </c>
+      <c r="N29" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2015 Game - 1316</v>
+      </c>
+      <c r="O29" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2015 Game - 1316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="25">
+        <v>2015</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="69">
+        <v>1316</v>
+      </c>
+      <c r="E30" s="25">
+        <v>2015</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="69">
+        <v>1316</v>
+      </c>
+      <c r="I30" s="25">
+        <v>2015</v>
+      </c>
+      <c r="J30" t="s">
+        <v>67</v>
+      </c>
+      <c r="K30">
+        <v>1316</v>
+      </c>
+      <c r="M30" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2015 GameExt - 1316</v>
+      </c>
+      <c r="N30" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2015 GameExt - 1316</v>
+      </c>
+      <c r="O30" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2015 GameExt - 1316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="25">
+        <v>2015</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="69">
+        <v>39124</v>
+      </c>
+      <c r="E31" s="25">
+        <v>2015</v>
+      </c>
+      <c r="F31" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="69">
+        <v>39124</v>
+      </c>
+      <c r="I31" s="25">
+        <v>2015</v>
+      </c>
+      <c r="J31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K31">
+        <v>39124</v>
+      </c>
+      <c r="M31" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2015 PBox - 39124</v>
+      </c>
+      <c r="N31" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2015 PBox - 39124</v>
+      </c>
+      <c r="O31" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2015 PBox - 39124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="25">
+        <v>2015</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="69">
+        <v>641644</v>
+      </c>
+      <c r="E32" s="25">
+        <v>2015</v>
+      </c>
+      <c r="F32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="69">
+        <v>641644</v>
+      </c>
+      <c r="I32" s="25">
+        <v>2015</v>
+      </c>
+      <c r="J32" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32">
+        <v>641644</v>
+      </c>
+      <c r="M32" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2015 PBP - 641644</v>
+      </c>
+      <c r="N32" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2015 PBP - 641644</v>
+      </c>
+      <c r="O32" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2015 PBP - 641644</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="25">
+        <v>2015</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="69">
+        <v>1316</v>
+      </c>
+      <c r="E33" s="25">
+        <v>2015</v>
+      </c>
+      <c r="F33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="69">
+        <v>1316</v>
+      </c>
+      <c r="I33" s="25">
+        <v>2015</v>
+      </c>
+      <c r="J33" t="s">
+        <v>70</v>
+      </c>
+      <c r="K33">
+        <v>1316</v>
+      </c>
+      <c r="M33" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2015 Season - 1316</v>
+      </c>
+      <c r="N33" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2015 Season - 1316</v>
+      </c>
+      <c r="O33" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2015 Season - 1316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="25">
+        <v>2015</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="69">
+        <v>33659</v>
+      </c>
+      <c r="E34" s="25">
+        <v>2015</v>
+      </c>
+      <c r="F34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="69">
+        <v>33659</v>
+      </c>
+      <c r="I34" s="25">
+        <v>2015</v>
+      </c>
+      <c r="J34" t="s">
+        <v>71</v>
+      </c>
+      <c r="K34">
+        <v>33659</v>
+      </c>
+      <c r="M34" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2015 SLineups - 33659</v>
+      </c>
+      <c r="N34" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2015 SLineups - 33659</v>
+      </c>
+      <c r="O34" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2015 SLineups - 33659</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="25">
+        <v>2015</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="69">
+        <v>2632</v>
+      </c>
+      <c r="E35" s="25">
+        <v>2015</v>
+      </c>
+      <c r="F35" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="69">
+        <v>2632</v>
+      </c>
+      <c r="I35" s="25">
+        <v>2015</v>
+      </c>
+      <c r="J35" t="s">
+        <v>72</v>
+      </c>
+      <c r="K35">
+        <v>2632</v>
+      </c>
+      <c r="M35" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2015 TBox - 2632</v>
+      </c>
+      <c r="N35" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2015 TBox - 2632</v>
+      </c>
+      <c r="O35" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2015 TBox - 2632</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="25">
+        <v>2015</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="69">
+        <v>5264</v>
+      </c>
+      <c r="E36" s="25">
+        <v>2015</v>
+      </c>
+      <c r="F36" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" s="69">
+        <v>5264</v>
+      </c>
+      <c r="I36" s="25">
+        <v>2015</v>
+      </c>
+      <c r="J36" t="s">
+        <v>73</v>
+      </c>
+      <c r="K36">
+        <v>5264</v>
+      </c>
+      <c r="M36" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2015 TboxLineups - 5264</v>
+      </c>
+      <c r="N36" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2015 TboxLineups - 5264</v>
+      </c>
+      <c r="O36" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2015 TboxLineups - 5264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="25">
+        <v>2016</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="69">
+        <v>1309</v>
+      </c>
+      <c r="E37" s="25">
+        <v>2016</v>
+      </c>
+      <c r="F37" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" s="69">
+        <v>1309</v>
+      </c>
+      <c r="I37" s="25">
+        <v>2016</v>
+      </c>
+      <c r="J37" t="s">
+        <v>74</v>
+      </c>
+      <c r="K37">
+        <v>1309</v>
+      </c>
+      <c r="M37" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2016 Game - 1309</v>
+      </c>
+      <c r="N37" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2016 Game - 1309</v>
+      </c>
+      <c r="O37" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2016 Game - 1309</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="25">
+        <v>2016</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="69">
+        <v>1309</v>
+      </c>
+      <c r="E38" s="25">
+        <v>2016</v>
+      </c>
+      <c r="F38" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="69">
+        <v>1309</v>
+      </c>
+      <c r="I38" s="25">
+        <v>2016</v>
+      </c>
+      <c r="J38" t="s">
+        <v>75</v>
+      </c>
+      <c r="K38">
+        <v>1309</v>
+      </c>
+      <c r="M38" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2016 GameExt - 1309</v>
+      </c>
+      <c r="N38" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2016 GameExt - 1309</v>
+      </c>
+      <c r="O38" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2016 GameExt - 1309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="25">
+        <v>2016</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="69">
+        <v>39077</v>
+      </c>
+      <c r="E39" s="25">
+        <v>2016</v>
+      </c>
+      <c r="F39" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" s="69">
+        <v>39077</v>
+      </c>
+      <c r="I39" s="25">
+        <v>2016</v>
+      </c>
+      <c r="J39" t="s">
+        <v>76</v>
+      </c>
+      <c r="K39">
+        <v>39077</v>
+      </c>
+      <c r="M39" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2016 PBox - 39077</v>
+      </c>
+      <c r="N39" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2016 PBox - 39077</v>
+      </c>
+      <c r="O39" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2016 PBox - 39077</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="25">
+        <v>2016</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="69">
+        <v>636059</v>
+      </c>
+      <c r="E40" s="25">
+        <v>2016</v>
+      </c>
+      <c r="F40" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="69">
+        <v>636059</v>
+      </c>
+      <c r="I40" s="25">
+        <v>2016</v>
+      </c>
+      <c r="J40" t="s">
+        <v>77</v>
+      </c>
+      <c r="K40">
+        <v>636059</v>
+      </c>
+      <c r="M40" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2016 PBP - 636059</v>
+      </c>
+      <c r="N40" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2016 PBP - 636059</v>
+      </c>
+      <c r="O40" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2016 PBP - 636059</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="25">
+        <v>2016</v>
+      </c>
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="69">
+        <v>1309</v>
+      </c>
+      <c r="E41" s="25">
+        <v>2016</v>
+      </c>
+      <c r="F41" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="69">
+        <v>1309</v>
+      </c>
+      <c r="I41" s="25">
+        <v>2016</v>
+      </c>
+      <c r="J41" t="s">
+        <v>78</v>
+      </c>
+      <c r="K41">
+        <v>1309</v>
+      </c>
+      <c r="M41" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2016 Season - 1309</v>
+      </c>
+      <c r="N41" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2016 Season - 1309</v>
+      </c>
+      <c r="O41" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2016 Season - 1309</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="25">
+        <v>2016</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="69">
+        <v>33610</v>
+      </c>
+      <c r="E42" s="25">
+        <v>2016</v>
+      </c>
+      <c r="F42" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="69">
+        <v>33610</v>
+      </c>
+      <c r="I42" s="25">
+        <v>2016</v>
+      </c>
+      <c r="J42" t="s">
+        <v>79</v>
+      </c>
+      <c r="K42">
+        <v>33610</v>
+      </c>
+      <c r="M42" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2016 SLineups - 33610</v>
+      </c>
+      <c r="N42" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2016 SLineups - 33610</v>
+      </c>
+      <c r="O42" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2016 SLineups - 33610</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="25">
+        <v>2016</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="69">
+        <v>2618</v>
+      </c>
+      <c r="E43" s="25">
+        <v>2016</v>
+      </c>
+      <c r="F43" t="s">
+        <v>80</v>
+      </c>
+      <c r="G43" s="69">
+        <v>2618</v>
+      </c>
+      <c r="I43" s="25">
+        <v>2016</v>
+      </c>
+      <c r="J43" t="s">
+        <v>80</v>
+      </c>
+      <c r="K43">
+        <v>2618</v>
+      </c>
+      <c r="M43" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2016 TBox - 2618</v>
+      </c>
+      <c r="N43" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2016 TBox - 2618</v>
+      </c>
+      <c r="O43" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2016 TBox - 2618</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="25">
+        <v>2016</v>
+      </c>
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="69">
+        <v>5236</v>
+      </c>
+      <c r="E44" s="25">
+        <v>2016</v>
+      </c>
+      <c r="F44" t="s">
+        <v>81</v>
+      </c>
+      <c r="G44" s="69">
+        <v>5236</v>
+      </c>
+      <c r="I44" s="25">
+        <v>2016</v>
+      </c>
+      <c r="J44" t="s">
+        <v>81</v>
+      </c>
+      <c r="K44">
+        <v>5236</v>
+      </c>
+      <c r="M44" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2016 TboxLineups - 5236</v>
+      </c>
+      <c r="N44" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2016 TboxLineups - 5236</v>
+      </c>
+      <c r="O44" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2016 TboxLineups - 5236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="25">
+        <v>2017</v>
+      </c>
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="69">
+        <v>1311</v>
+      </c>
+      <c r="E45" s="25">
+        <v>2017</v>
+      </c>
+      <c r="F45" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="69">
+        <v>1311</v>
+      </c>
+      <c r="I45" s="25">
+        <v>2017</v>
+      </c>
+      <c r="J45" t="s">
+        <v>58</v>
+      </c>
+      <c r="K45">
+        <v>1311</v>
+      </c>
+      <c r="M45" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2017 Game - 1311</v>
+      </c>
+      <c r="N45" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2017 Game - 1311</v>
+      </c>
+      <c r="O45" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2017 Game - 1311</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="25">
+        <v>2017</v>
+      </c>
+      <c r="B46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="69">
+        <v>1311</v>
+      </c>
+      <c r="E46" s="25">
+        <v>2017</v>
+      </c>
+      <c r="F46" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="69">
+        <v>1311</v>
+      </c>
+      <c r="I46" s="25">
+        <v>2017</v>
+      </c>
+      <c r="J46" t="s">
+        <v>59</v>
+      </c>
+      <c r="K46">
+        <v>1311</v>
+      </c>
+      <c r="M46" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2017 GameExt - 1311</v>
+      </c>
+      <c r="N46" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2017 GameExt - 1311</v>
+      </c>
+      <c r="O46" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2017 GameExt - 1311</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="25">
+        <v>2017</v>
+      </c>
+      <c r="B47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="69">
+        <v>43115</v>
+      </c>
+      <c r="E47" s="25">
+        <v>2017</v>
+      </c>
+      <c r="F47" t="s">
+        <v>82</v>
+      </c>
+      <c r="G47" s="69">
+        <v>43115</v>
+      </c>
+      <c r="I47" s="25">
+        <v>2017</v>
+      </c>
+      <c r="J47" t="s">
+        <v>82</v>
+      </c>
+      <c r="K47">
+        <v>43115</v>
+      </c>
+      <c r="M47" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2017 PBox - 43115</v>
+      </c>
+      <c r="N47" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2017 PBox - 43115</v>
+      </c>
+      <c r="O47" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2017 PBox - 43115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="25">
+        <v>2017</v>
+      </c>
+      <c r="B48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="69">
+        <v>631695</v>
+      </c>
+      <c r="E48" s="25">
+        <v>2017</v>
+      </c>
+      <c r="F48" t="s">
+        <v>83</v>
+      </c>
+      <c r="G48" s="69">
+        <v>631695</v>
+      </c>
+      <c r="I48" s="25">
+        <v>2017</v>
+      </c>
+      <c r="J48" t="s">
+        <v>83</v>
+      </c>
+      <c r="K48">
+        <v>631695</v>
+      </c>
+      <c r="M48" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2017 PBP - 631695</v>
+      </c>
+      <c r="N48" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2017 PBP - 631695</v>
+      </c>
+      <c r="O48" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2017 PBP - 631695</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="25">
+        <v>2017</v>
+      </c>
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="69">
+        <v>1311</v>
+      </c>
+      <c r="E49" s="25">
+        <v>2017</v>
+      </c>
+      <c r="F49" t="s">
+        <v>62</v>
+      </c>
+      <c r="G49" s="69">
+        <v>1311</v>
+      </c>
+      <c r="I49" s="25">
+        <v>2017</v>
+      </c>
+      <c r="J49" t="s">
+        <v>62</v>
+      </c>
+      <c r="K49">
+        <v>1311</v>
+      </c>
+      <c r="M49" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2017 Season - 1311</v>
+      </c>
+      <c r="N49" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2017 Season - 1311</v>
+      </c>
+      <c r="O49" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2017 Season - 1311</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="25">
+        <v>2017</v>
+      </c>
+      <c r="B50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="69">
+        <v>33064</v>
+      </c>
+      <c r="E50" s="25">
+        <v>2017</v>
+      </c>
+      <c r="F50" t="s">
+        <v>84</v>
+      </c>
+      <c r="G50" s="69">
+        <v>33064</v>
+      </c>
+      <c r="I50" s="25">
+        <v>2017</v>
+      </c>
+      <c r="J50" t="s">
+        <v>84</v>
+      </c>
+      <c r="K50">
+        <v>33064</v>
+      </c>
+      <c r="M50" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2017 SLineups - 33064</v>
+      </c>
+      <c r="N50" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2017 SLineups - 33064</v>
+      </c>
+      <c r="O50" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2017 SLineups - 33064</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="25">
+        <v>2017</v>
+      </c>
+      <c r="B51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="69">
+        <v>2622</v>
+      </c>
+      <c r="E51" s="25">
+        <v>2017</v>
+      </c>
+      <c r="F51" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" s="69">
+        <v>2622</v>
+      </c>
+      <c r="I51" s="25">
+        <v>2017</v>
+      </c>
+      <c r="J51" t="s">
+        <v>64</v>
+      </c>
+      <c r="K51">
+        <v>2622</v>
+      </c>
+      <c r="M51" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2017 TBox - 2622</v>
+      </c>
+      <c r="N51" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2017 TBox - 2622</v>
+      </c>
+      <c r="O51" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2017 TBox - 2622</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="25">
+        <v>2017</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="69">
+        <v>5244</v>
+      </c>
+      <c r="E52" s="25">
+        <v>2017</v>
+      </c>
+      <c r="F52" t="s">
+        <v>65</v>
+      </c>
+      <c r="G52" s="69">
+        <v>5244</v>
+      </c>
+      <c r="I52" s="25">
+        <v>2017</v>
+      </c>
+      <c r="J52" t="s">
+        <v>65</v>
+      </c>
+      <c r="K52">
+        <v>5244</v>
+      </c>
+      <c r="M52" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2017 TboxLineups - 5244</v>
+      </c>
+      <c r="N52" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2017 TboxLineups - 5244</v>
+      </c>
+      <c r="O52" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2017 TboxLineups - 5244</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="69">
+        <v>1312</v>
+      </c>
+      <c r="E53" s="25">
+        <v>2018</v>
+      </c>
+      <c r="F53" t="s">
+        <v>85</v>
+      </c>
+      <c r="G53" s="69">
+        <v>1312</v>
+      </c>
+      <c r="I53" s="25">
+        <v>2018</v>
+      </c>
+      <c r="J53" t="s">
+        <v>85</v>
+      </c>
+      <c r="K53">
+        <v>1312</v>
+      </c>
+      <c r="M53" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2018 Game - 1312</v>
+      </c>
+      <c r="N53" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2018 Game - 1312</v>
+      </c>
+      <c r="O53" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2018 Game - 1312</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="69">
+        <v>1312</v>
+      </c>
+      <c r="E54" s="25">
+        <v>2018</v>
+      </c>
+      <c r="F54" t="s">
+        <v>86</v>
+      </c>
+      <c r="G54" s="69">
+        <v>1312</v>
+      </c>
+      <c r="I54" s="25">
+        <v>2018</v>
+      </c>
+      <c r="J54" t="s">
+        <v>86</v>
+      </c>
+      <c r="K54">
+        <v>1312</v>
+      </c>
+      <c r="M54" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2018 GameExt - 1312</v>
+      </c>
+      <c r="N54" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2018 GameExt - 1312</v>
+      </c>
+      <c r="O54" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2018 GameExt - 1312</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B55" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="69">
+        <v>42850</v>
+      </c>
+      <c r="E55" s="25">
+        <v>2018</v>
+      </c>
+      <c r="F55" t="s">
+        <v>87</v>
+      </c>
+      <c r="G55" s="69">
+        <v>42850</v>
+      </c>
+      <c r="I55" s="25">
+        <v>2018</v>
+      </c>
+      <c r="J55" t="s">
+        <v>87</v>
+      </c>
+      <c r="K55">
+        <v>42850</v>
+      </c>
+      <c r="M55" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2018 PBox - 42850</v>
+      </c>
+      <c r="N55" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2018 PBox - 42850</v>
+      </c>
+      <c r="O55" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2018 PBox - 42850</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="69">
+        <v>654447</v>
+      </c>
+      <c r="E56" s="25">
+        <v>2018</v>
+      </c>
+      <c r="F56" t="s">
+        <v>88</v>
+      </c>
+      <c r="G56" s="69">
+        <v>654447</v>
+      </c>
+      <c r="I56" s="25">
+        <v>2018</v>
+      </c>
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+      <c r="K56">
+        <v>654447</v>
+      </c>
+      <c r="M56" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2018 PBP - 654447</v>
+      </c>
+      <c r="N56" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2018 PBP - 654447</v>
+      </c>
+      <c r="O56" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2018 PBP - 654447</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="69">
+        <v>1312</v>
+      </c>
+      <c r="E57" s="25">
+        <v>2018</v>
+      </c>
+      <c r="F57" t="s">
+        <v>89</v>
+      </c>
+      <c r="G57" s="69">
+        <v>1312</v>
+      </c>
+      <c r="I57" s="25">
+        <v>2018</v>
+      </c>
+      <c r="J57" t="s">
+        <v>89</v>
+      </c>
+      <c r="K57">
+        <v>1312</v>
+      </c>
+      <c r="M57" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2018 Season - 1312</v>
+      </c>
+      <c r="N57" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2018 Season - 1312</v>
+      </c>
+      <c r="O57" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2018 Season - 1312</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B58" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="69">
+        <v>32928</v>
+      </c>
+      <c r="E58" s="25">
+        <v>2018</v>
+      </c>
+      <c r="F58" t="s">
+        <v>90</v>
+      </c>
+      <c r="G58" s="69">
+        <v>32928</v>
+      </c>
+      <c r="I58" s="25">
+        <v>2018</v>
+      </c>
+      <c r="J58" t="s">
+        <v>90</v>
+      </c>
+      <c r="K58">
+        <v>32928</v>
+      </c>
+      <c r="M58" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2018 SLineups - 32928</v>
+      </c>
+      <c r="N58" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2018 SLineups - 32928</v>
+      </c>
+      <c r="O58" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2018 SLineups - 32928</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B59" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="69">
+        <v>2624</v>
+      </c>
+      <c r="E59" s="25">
+        <v>2018</v>
+      </c>
+      <c r="F59" t="s">
+        <v>91</v>
+      </c>
+      <c r="G59" s="69">
+        <v>2624</v>
+      </c>
+      <c r="I59" s="25">
+        <v>2018</v>
+      </c>
+      <c r="J59" t="s">
+        <v>91</v>
+      </c>
+      <c r="K59">
+        <v>2624</v>
+      </c>
+      <c r="M59" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2018 TBox - 2624</v>
+      </c>
+      <c r="N59" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2018 TBox - 2624</v>
+      </c>
+      <c r="O59" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2018 TBox - 2624</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="69">
+        <v>5248</v>
+      </c>
+      <c r="E60" s="25">
+        <v>2018</v>
+      </c>
+      <c r="F60" t="s">
+        <v>92</v>
+      </c>
+      <c r="G60" s="69">
+        <v>5248</v>
+      </c>
+      <c r="I60" s="25">
+        <v>2018</v>
+      </c>
+      <c r="J60" t="s">
+        <v>92</v>
+      </c>
+      <c r="K60">
+        <v>5248</v>
+      </c>
+      <c r="M60" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2018 TboxLineups - 5248</v>
+      </c>
+      <c r="N60" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2018 TboxLineups - 5248</v>
+      </c>
+      <c r="O60" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2018 TboxLineups - 5248</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B61" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="69">
+        <v>1142</v>
+      </c>
+      <c r="E61" s="25">
+        <v>2019</v>
+      </c>
+      <c r="F61" t="s">
+        <v>93</v>
+      </c>
+      <c r="G61" s="69">
+        <v>1142</v>
+      </c>
+      <c r="I61" s="25">
+        <v>2019</v>
+      </c>
+      <c r="J61" t="s">
+        <v>93</v>
+      </c>
+      <c r="K61">
+        <v>1142</v>
+      </c>
+      <c r="M61" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2019 Game - 1142</v>
+      </c>
+      <c r="N61" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2019 Game - 1142</v>
+      </c>
+      <c r="O61" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2019 Game - 1142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B62" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="69">
+        <v>1142</v>
+      </c>
+      <c r="E62" s="25">
+        <v>2019</v>
+      </c>
+      <c r="F62" t="s">
+        <v>94</v>
+      </c>
+      <c r="G62" s="69">
+        <v>1142</v>
+      </c>
+      <c r="I62" s="25">
+        <v>2019</v>
+      </c>
+      <c r="J62" t="s">
+        <v>94</v>
+      </c>
+      <c r="K62">
+        <v>1142</v>
+      </c>
+      <c r="M62" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2019 GameExt - 1142</v>
+      </c>
+      <c r="N62" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2019 GameExt - 1142</v>
+      </c>
+      <c r="O62" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2019 GameExt - 1142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B63" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="69">
+        <v>37902</v>
+      </c>
+      <c r="E63" s="25">
+        <v>2019</v>
+      </c>
+      <c r="F63" t="s">
+        <v>95</v>
+      </c>
+      <c r="G63" s="69">
+        <v>37902</v>
+      </c>
+      <c r="I63" s="25">
+        <v>2019</v>
+      </c>
+      <c r="J63" t="s">
+        <v>95</v>
+      </c>
+      <c r="K63">
+        <v>37902</v>
+      </c>
+      <c r="M63" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2019 PBox - 37902</v>
+      </c>
+      <c r="N63" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2019 PBox - 37902</v>
+      </c>
+      <c r="O63" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2019 PBox - 37902</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B64" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="69">
+        <v>571071</v>
+      </c>
+      <c r="E64" s="25">
+        <v>2019</v>
+      </c>
+      <c r="F64" t="s">
+        <v>96</v>
+      </c>
+      <c r="G64" s="69">
+        <v>571071</v>
+      </c>
+      <c r="I64" s="25">
+        <v>2019</v>
+      </c>
+      <c r="J64" t="s">
+        <v>96</v>
+      </c>
+      <c r="K64">
+        <v>571071</v>
+      </c>
+      <c r="M64" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2019 PBP - 571071</v>
+      </c>
+      <c r="N64" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2019 PBP - 571071</v>
+      </c>
+      <c r="O64" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2019 PBP - 571071</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B65" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" s="69">
+        <v>1142</v>
+      </c>
+      <c r="E65" s="25">
+        <v>2019</v>
+      </c>
+      <c r="F65" t="s">
+        <v>97</v>
+      </c>
+      <c r="G65" s="69">
+        <v>1142</v>
+      </c>
+      <c r="I65" s="25">
+        <v>2019</v>
+      </c>
+      <c r="J65" t="s">
+        <v>97</v>
+      </c>
+      <c r="K65">
+        <v>1142</v>
+      </c>
+      <c r="M65" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2019 Season - 1142</v>
+      </c>
+      <c r="N65" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2019 Season - 1142</v>
+      </c>
+      <c r="O65" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2019 Season - 1142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B66" t="s">
+        <v>98</v>
+      </c>
+      <c r="C66" s="69">
+        <v>28682</v>
+      </c>
+      <c r="E66" s="25">
+        <v>2019</v>
+      </c>
+      <c r="F66" t="s">
+        <v>98</v>
+      </c>
+      <c r="G66" s="69">
+        <v>28682</v>
+      </c>
+      <c r="I66" s="25">
+        <v>2019</v>
+      </c>
+      <c r="J66" t="s">
+        <v>98</v>
+      </c>
+      <c r="K66">
+        <v>28682</v>
+      </c>
+      <c r="M66" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2019 SLineups - 28682</v>
+      </c>
+      <c r="N66" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2019 SLineups - 28682</v>
+      </c>
+      <c r="O66" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2019 SLineups - 28682</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B67" t="s">
+        <v>99</v>
+      </c>
+      <c r="C67" s="69">
+        <v>2284</v>
+      </c>
+      <c r="E67" s="25">
+        <v>2019</v>
+      </c>
+      <c r="F67" t="s">
+        <v>99</v>
+      </c>
+      <c r="G67" s="69">
+        <v>2284</v>
+      </c>
+      <c r="I67" s="25">
+        <v>2019</v>
+      </c>
+      <c r="J67" t="s">
+        <v>99</v>
+      </c>
+      <c r="K67">
+        <v>2284</v>
+      </c>
+      <c r="M67" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2019 TBox - 2284</v>
+      </c>
+      <c r="N67" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2019 TBox - 2284</v>
+      </c>
+      <c r="O67" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2019 TBox - 2284</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C68" s="69">
+        <v>4568</v>
+      </c>
+      <c r="E68" s="25">
+        <v>2019</v>
+      </c>
+      <c r="F68" t="s">
+        <v>100</v>
+      </c>
+      <c r="G68" s="69">
+        <v>4568</v>
+      </c>
+      <c r="I68" s="25">
+        <v>2019</v>
+      </c>
+      <c r="J68" t="s">
+        <v>100</v>
+      </c>
+      <c r="K68">
+        <v>4568</v>
+      </c>
+      <c r="M68" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2019 TboxLineups - 4568</v>
+      </c>
+      <c r="N68" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2019 TboxLineups - 4568</v>
+      </c>
+      <c r="O68" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2019 TboxLineups - 4568</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B69" t="s">
+        <v>101</v>
+      </c>
+      <c r="C69" s="69">
+        <v>1171</v>
+      </c>
+      <c r="E69" s="25">
+        <v>2020</v>
+      </c>
+      <c r="F69" t="s">
+        <v>101</v>
+      </c>
+      <c r="G69" s="69">
+        <v>1171</v>
+      </c>
+      <c r="I69" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J69" t="s">
+        <v>101</v>
+      </c>
+      <c r="K69">
+        <v>1171</v>
+      </c>
+      <c r="M69" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2020 Game - 1171</v>
+      </c>
+      <c r="N69" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2020 Game - 1171</v>
+      </c>
+      <c r="O69" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2020 Game - 1171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B70" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" s="69">
+        <v>1171</v>
+      </c>
+      <c r="E70" s="25">
+        <v>2020</v>
+      </c>
+      <c r="F70" t="s">
+        <v>102</v>
+      </c>
+      <c r="G70" s="69">
+        <v>1171</v>
+      </c>
+      <c r="I70" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J70" t="s">
+        <v>102</v>
+      </c>
+      <c r="K70">
+        <v>1171</v>
+      </c>
+      <c r="M70" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2020 GameExt - 1171</v>
+      </c>
+      <c r="N70" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2020 GameExt - 1171</v>
+      </c>
+      <c r="O70" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2020 GameExt - 1171</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B71" t="s">
+        <v>103</v>
+      </c>
+      <c r="C71" s="69">
+        <v>38734</v>
+      </c>
+      <c r="E71" s="25">
+        <v>2020</v>
+      </c>
+      <c r="F71" t="s">
+        <v>103</v>
+      </c>
+      <c r="G71" s="69">
+        <v>38734</v>
+      </c>
+      <c r="I71" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J71" t="s">
+        <v>103</v>
+      </c>
+      <c r="K71">
+        <v>38734</v>
+      </c>
+      <c r="M71" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2020 PBox - 38734</v>
+      </c>
+      <c r="N71" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2020 PBox - 38734</v>
+      </c>
+      <c r="O71" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2020 PBox - 38734</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B72" t="s">
+        <v>104</v>
+      </c>
+      <c r="C72" s="69">
+        <v>570306</v>
+      </c>
+      <c r="E72" s="25">
+        <v>2020</v>
+      </c>
+      <c r="F72" t="s">
+        <v>104</v>
+      </c>
+      <c r="G72" s="69">
+        <v>570306</v>
+      </c>
+      <c r="I72" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J72" t="s">
+        <v>104</v>
+      </c>
+      <c r="K72">
+        <v>570306</v>
+      </c>
+      <c r="M72" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2020 PBP - 570306</v>
+      </c>
+      <c r="N72" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2020 PBP - 570306</v>
+      </c>
+      <c r="O72" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2020 PBP - 570306</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B73" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" s="69">
+        <v>1171</v>
+      </c>
+      <c r="E73" s="25">
+        <v>2020</v>
+      </c>
+      <c r="F73" t="s">
+        <v>105</v>
+      </c>
+      <c r="G73" s="69">
+        <v>1171</v>
+      </c>
+      <c r="I73" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J73" t="s">
+        <v>105</v>
+      </c>
+      <c r="K73">
+        <v>1171</v>
+      </c>
+      <c r="M73" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2020 Season - 1171</v>
+      </c>
+      <c r="N73" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2020 Season - 1171</v>
+      </c>
+      <c r="O73" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2020 Season - 1171</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B74" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="69">
+        <v>31546</v>
+      </c>
+      <c r="E74" s="25">
+        <v>2020</v>
+      </c>
+      <c r="F74" t="s">
+        <v>106</v>
+      </c>
+      <c r="G74" s="69">
+        <v>31546</v>
+      </c>
+      <c r="I74" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J74" t="s">
+        <v>106</v>
+      </c>
+      <c r="K74">
+        <v>31546</v>
+      </c>
+      <c r="M74" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2020 SLineups - 31546</v>
+      </c>
+      <c r="N74" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2020 SLineups - 31546</v>
+      </c>
+      <c r="O74" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2020 SLineups - 31546</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B75" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" s="69">
+        <v>2342</v>
+      </c>
+      <c r="E75" s="25">
+        <v>2020</v>
+      </c>
+      <c r="F75" t="s">
+        <v>107</v>
+      </c>
+      <c r="G75" s="69">
+        <v>2342</v>
+      </c>
+      <c r="I75" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J75" t="s">
+        <v>107</v>
+      </c>
+      <c r="K75">
+        <v>2342</v>
+      </c>
+      <c r="M75" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2020 TBox - 2342</v>
+      </c>
+      <c r="N75" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2020 TBox - 2342</v>
+      </c>
+      <c r="O75" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2020 TBox - 2342</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B76" t="s">
+        <v>108</v>
+      </c>
+      <c r="C76" s="69">
+        <v>4684</v>
+      </c>
+      <c r="E76" s="25">
+        <v>2020</v>
+      </c>
+      <c r="F76" t="s">
+        <v>108</v>
+      </c>
+      <c r="G76" s="69">
+        <v>4684</v>
+      </c>
+      <c r="I76" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J76" t="s">
+        <v>108</v>
+      </c>
+      <c r="K76">
+        <v>4684</v>
+      </c>
+      <c r="M76" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2020 TboxLineups - 4684</v>
+      </c>
+      <c r="N76" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2020 TboxLineups - 4684</v>
+      </c>
+      <c r="O76" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2020 TboxLineups - 4684</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="25">
+        <v>2021</v>
+      </c>
+      <c r="B77" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" s="69">
+        <v>1323</v>
+      </c>
+      <c r="E77" s="25">
+        <v>2021</v>
+      </c>
+      <c r="F77" t="s">
+        <v>109</v>
+      </c>
+      <c r="G77" s="69">
+        <v>1323</v>
+      </c>
+      <c r="I77" s="25">
+        <v>2021</v>
+      </c>
+      <c r="J77" t="s">
+        <v>109</v>
+      </c>
+      <c r="K77">
+        <v>1323</v>
+      </c>
+      <c r="M77" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2021 Game - 1323</v>
+      </c>
+      <c r="N77" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2021 Game - 1323</v>
+      </c>
+      <c r="O77" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2021 Game - 1323</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="25">
+        <v>2021</v>
+      </c>
+      <c r="B78" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" s="69">
+        <v>1323</v>
+      </c>
+      <c r="E78" s="25">
+        <v>2021</v>
+      </c>
+      <c r="F78" t="s">
+        <v>110</v>
+      </c>
+      <c r="G78" s="69">
+        <v>1323</v>
+      </c>
+      <c r="I78" s="25">
+        <v>2021</v>
+      </c>
+      <c r="J78" t="s">
+        <v>110</v>
+      </c>
+      <c r="K78">
+        <v>1323</v>
+      </c>
+      <c r="M78" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2021 GameExt - 1323</v>
+      </c>
+      <c r="N78" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2021 GameExt - 1323</v>
+      </c>
+      <c r="O78" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2021 GameExt - 1323</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="25">
+        <v>2021</v>
+      </c>
+      <c r="B79" t="s">
+        <v>111</v>
+      </c>
+      <c r="C79" s="69">
+        <v>44738</v>
+      </c>
+      <c r="E79" s="25">
+        <v>2021</v>
+      </c>
+      <c r="F79" t="s">
+        <v>111</v>
+      </c>
+      <c r="G79" s="69">
+        <v>44738</v>
+      </c>
+      <c r="I79" s="25">
+        <v>2021</v>
+      </c>
+      <c r="J79" t="s">
+        <v>111</v>
+      </c>
+      <c r="K79">
+        <v>44738</v>
+      </c>
+      <c r="M79" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2021 PBox - 44738</v>
+      </c>
+      <c r="N79" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2021 PBox - 44738</v>
+      </c>
+      <c r="O79" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2021 PBox - 44738</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="25">
+        <v>2021</v>
+      </c>
+      <c r="B80" t="s">
+        <v>112</v>
+      </c>
+      <c r="C80" s="69">
+        <v>645450</v>
+      </c>
+      <c r="E80" s="25">
+        <v>2021</v>
+      </c>
+      <c r="F80" t="s">
+        <v>112</v>
+      </c>
+      <c r="G80" s="69">
+        <v>645450</v>
+      </c>
+      <c r="I80" s="25">
+        <v>2021</v>
+      </c>
+      <c r="J80" t="s">
+        <v>112</v>
+      </c>
+      <c r="K80">
+        <v>645450</v>
+      </c>
+      <c r="M80" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2021 PBP - 645450</v>
+      </c>
+      <c r="N80" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2021 PBP - 645450</v>
+      </c>
+      <c r="O80" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2021 PBP - 645450</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="25">
+        <v>2021</v>
+      </c>
+      <c r="B81" t="s">
+        <v>113</v>
+      </c>
+      <c r="C81" s="69">
+        <v>1323</v>
+      </c>
+      <c r="E81" s="25">
+        <v>2021</v>
+      </c>
+      <c r="F81" t="s">
+        <v>113</v>
+      </c>
+      <c r="G81" s="69">
+        <v>1323</v>
+      </c>
+      <c r="I81" s="25">
+        <v>2021</v>
+      </c>
+      <c r="J81" t="s">
+        <v>113</v>
+      </c>
+      <c r="K81">
+        <v>1323</v>
+      </c>
+      <c r="M81" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2021 Season - 1323</v>
+      </c>
+      <c r="N81" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2021 Season - 1323</v>
+      </c>
+      <c r="O81" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2021 Season - 1323</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="25">
+        <v>2021</v>
+      </c>
+      <c r="B82" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" s="69">
+        <v>33848</v>
+      </c>
+      <c r="E82" s="25">
+        <v>2021</v>
+      </c>
+      <c r="F82" t="s">
+        <v>114</v>
+      </c>
+      <c r="G82" s="69">
+        <v>33848</v>
+      </c>
+      <c r="I82" s="25">
+        <v>2021</v>
+      </c>
+      <c r="J82" t="s">
+        <v>114</v>
+      </c>
+      <c r="K82">
+        <v>33848</v>
+      </c>
+      <c r="M82" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2021 SLineups - 33848</v>
+      </c>
+      <c r="N82" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2021 SLineups - 33848</v>
+      </c>
+      <c r="O82" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2021 SLineups - 33848</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="25">
+        <v>2021</v>
+      </c>
+      <c r="B83" t="s">
+        <v>115</v>
+      </c>
+      <c r="C83" s="69">
+        <v>2646</v>
+      </c>
+      <c r="E83" s="25">
+        <v>2021</v>
+      </c>
+      <c r="F83" t="s">
+        <v>115</v>
+      </c>
+      <c r="G83" s="69">
+        <v>2646</v>
+      </c>
+      <c r="I83" s="25">
+        <v>2021</v>
+      </c>
+      <c r="J83" t="s">
+        <v>115</v>
+      </c>
+      <c r="K83">
+        <v>2646</v>
+      </c>
+      <c r="M83" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2021 TBox - 2646</v>
+      </c>
+      <c r="N83" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2021 TBox - 2646</v>
+      </c>
+      <c r="O83" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2021 TBox - 2646</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="25">
+        <v>2021</v>
+      </c>
+      <c r="B84" t="s">
+        <v>116</v>
+      </c>
+      <c r="C84" s="69">
+        <v>5292</v>
+      </c>
+      <c r="E84" s="25">
+        <v>2021</v>
+      </c>
+      <c r="F84" t="s">
+        <v>116</v>
+      </c>
+      <c r="G84" s="69">
+        <v>5292</v>
+      </c>
+      <c r="I84" s="25">
+        <v>2021</v>
+      </c>
+      <c r="J84" t="s">
+        <v>116</v>
+      </c>
+      <c r="K84">
+        <v>5292</v>
+      </c>
+      <c r="M84" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2021 TboxLineups - 5292</v>
+      </c>
+      <c r="N84" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2021 TboxLineups - 5292</v>
+      </c>
+      <c r="O84" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2021 TboxLineups - 5292</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" s="25">
+        <v>2022</v>
+      </c>
+      <c r="B85" t="s">
+        <v>117</v>
+      </c>
+      <c r="C85" s="69">
+        <v>1320</v>
+      </c>
+      <c r="E85" s="25">
+        <v>2022</v>
+      </c>
+      <c r="F85" t="s">
+        <v>117</v>
+      </c>
+      <c r="G85" s="69">
+        <v>1320</v>
+      </c>
+      <c r="I85" s="25">
+        <v>2022</v>
+      </c>
+      <c r="J85" t="s">
+        <v>117</v>
+      </c>
+      <c r="K85">
+        <v>1320</v>
+      </c>
+      <c r="M85" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2022 Game - 1320</v>
+      </c>
+      <c r="N85" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2022 Game - 1320</v>
+      </c>
+      <c r="O85" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2022 Game - 1320</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" s="25">
+        <v>2022</v>
+      </c>
+      <c r="B86" t="s">
+        <v>118</v>
+      </c>
+      <c r="C86" s="69">
+        <v>1320</v>
+      </c>
+      <c r="E86" s="25">
+        <v>2022</v>
+      </c>
+      <c r="F86" t="s">
+        <v>118</v>
+      </c>
+      <c r="G86" s="69">
+        <v>1320</v>
+      </c>
+      <c r="I86" s="25">
+        <v>2022</v>
+      </c>
+      <c r="J86" t="s">
+        <v>118</v>
+      </c>
+      <c r="K86">
+        <v>1320</v>
+      </c>
+      <c r="M86" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2022 GameExt - 1320</v>
+      </c>
+      <c r="N86" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2022 GameExt - 1320</v>
+      </c>
+      <c r="O86" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2022 GameExt - 1320</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" s="25">
+        <v>2022</v>
+      </c>
+      <c r="B87" t="s">
+        <v>119</v>
+      </c>
+      <c r="C87" s="69">
+        <v>43650</v>
+      </c>
+      <c r="E87" s="25">
+        <v>2022</v>
+      </c>
+      <c r="F87" t="s">
+        <v>119</v>
+      </c>
+      <c r="G87" s="69">
+        <v>43650</v>
+      </c>
+      <c r="I87" s="25">
+        <v>2022</v>
+      </c>
+      <c r="J87" t="s">
+        <v>119</v>
+      </c>
+      <c r="K87">
+        <v>43650</v>
+      </c>
+      <c r="M87" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2022 PBox - 43650</v>
+      </c>
+      <c r="N87" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2022 PBox - 43650</v>
+      </c>
+      <c r="O87" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2022 PBox - 43650</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" s="25">
+        <v>2022</v>
+      </c>
+      <c r="B88" t="s">
+        <v>120</v>
+      </c>
+      <c r="C88" s="69">
+        <v>646971</v>
+      </c>
+      <c r="E88" s="25">
+        <v>2022</v>
+      </c>
+      <c r="F88" t="s">
+        <v>120</v>
+      </c>
+      <c r="G88" s="69">
+        <v>646971</v>
+      </c>
+      <c r="I88" s="25">
+        <v>2022</v>
+      </c>
+      <c r="J88" t="s">
+        <v>120</v>
+      </c>
+      <c r="K88">
+        <v>646971</v>
+      </c>
+      <c r="M88" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2022 PBP - 646971</v>
+      </c>
+      <c r="N88" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2022 PBP - 646971</v>
+      </c>
+      <c r="O88" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2022 PBP - 646971</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" s="25">
+        <v>2022</v>
+      </c>
+      <c r="B89" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="69">
+        <v>1320</v>
+      </c>
+      <c r="E89" s="25">
+        <v>2022</v>
+      </c>
+      <c r="F89" t="s">
+        <v>121</v>
+      </c>
+      <c r="G89" s="69">
+        <v>1320</v>
+      </c>
+      <c r="I89" s="25">
+        <v>2022</v>
+      </c>
+      <c r="J89" t="s">
+        <v>121</v>
+      </c>
+      <c r="K89">
+        <v>1320</v>
+      </c>
+      <c r="M89" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2022 Season - 1320</v>
+      </c>
+      <c r="N89" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2022 Season - 1320</v>
+      </c>
+      <c r="O89" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2022 Season - 1320</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" s="25">
+        <v>2022</v>
+      </c>
+      <c r="B90" t="s">
+        <v>122</v>
+      </c>
+      <c r="C90" s="69">
+        <v>34024</v>
+      </c>
+      <c r="E90" s="25">
+        <v>2022</v>
+      </c>
+      <c r="F90" t="s">
+        <v>122</v>
+      </c>
+      <c r="G90" s="69">
+        <v>34024</v>
+      </c>
+      <c r="I90" s="25">
+        <v>2022</v>
+      </c>
+      <c r="J90" t="s">
+        <v>122</v>
+      </c>
+      <c r="K90">
+        <v>34024</v>
+      </c>
+      <c r="M90" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2022 SLineups - 34024</v>
+      </c>
+      <c r="N90" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2022 SLineups - 34024</v>
+      </c>
+      <c r="O90" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2022 SLineups - 34024</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" s="25">
+        <v>2022</v>
+      </c>
+      <c r="B91" t="s">
+        <v>123</v>
+      </c>
+      <c r="C91" s="69">
+        <v>2640</v>
+      </c>
+      <c r="E91" s="25">
+        <v>2022</v>
+      </c>
+      <c r="F91" t="s">
+        <v>123</v>
+      </c>
+      <c r="G91" s="69">
+        <v>2640</v>
+      </c>
+      <c r="I91" s="25">
+        <v>2022</v>
+      </c>
+      <c r="J91" t="s">
+        <v>123</v>
+      </c>
+      <c r="K91">
+        <v>2640</v>
+      </c>
+      <c r="M91" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2022 TBox - 2640</v>
+      </c>
+      <c r="N91" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2022 TBox - 2640</v>
+      </c>
+      <c r="O91" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2022 TBox - 2640</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" s="25">
+        <v>2022</v>
+      </c>
+      <c r="B92" t="s">
+        <v>124</v>
+      </c>
+      <c r="C92" s="69">
+        <v>5280</v>
+      </c>
+      <c r="E92" s="25">
+        <v>2022</v>
+      </c>
+      <c r="F92" t="s">
+        <v>124</v>
+      </c>
+      <c r="G92" s="69">
+        <v>5280</v>
+      </c>
+      <c r="I92" s="25">
+        <v>2022</v>
+      </c>
+      <c r="J92" t="s">
+        <v>124</v>
+      </c>
+      <c r="K92">
+        <v>5280</v>
+      </c>
+      <c r="M92" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2022 TboxLineups - 5280</v>
+      </c>
+      <c r="N92" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2022 TboxLineups - 5280</v>
+      </c>
+      <c r="O92" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2022 TboxLineups - 5280</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" s="25">
+        <v>2023</v>
+      </c>
+      <c r="B93" t="s">
+        <v>125</v>
+      </c>
+      <c r="C93" s="69">
+        <v>1318</v>
+      </c>
+      <c r="E93" s="25">
+        <v>2023</v>
+      </c>
+      <c r="F93" t="s">
+        <v>125</v>
+      </c>
+      <c r="G93" s="69">
+        <v>1318</v>
+      </c>
+      <c r="I93" s="25">
+        <v>2023</v>
+      </c>
+      <c r="J93" t="s">
+        <v>125</v>
+      </c>
+      <c r="K93">
+        <v>1318</v>
+      </c>
+      <c r="M93" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2023 Game - 1318</v>
+      </c>
+      <c r="N93" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2023 Game - 1318</v>
+      </c>
+      <c r="O93" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2023 Game - 1318</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" s="25">
+        <v>2023</v>
+      </c>
+      <c r="B94" t="s">
+        <v>126</v>
+      </c>
+      <c r="C94" s="69">
+        <v>1318</v>
+      </c>
+      <c r="E94" s="25">
+        <v>2023</v>
+      </c>
+      <c r="F94" t="s">
+        <v>126</v>
+      </c>
+      <c r="G94" s="69">
+        <v>1318</v>
+      </c>
+      <c r="I94" s="25">
+        <v>2023</v>
+      </c>
+      <c r="J94" t="s">
+        <v>126</v>
+      </c>
+      <c r="K94">
+        <v>1318</v>
+      </c>
+      <c r="M94" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2023 GameExt - 1318</v>
+      </c>
+      <c r="N94" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2023 GameExt - 1318</v>
+      </c>
+      <c r="O94" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2023 GameExt - 1318</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" s="25">
+        <v>2023</v>
+      </c>
+      <c r="B95" t="s">
+        <v>127</v>
+      </c>
+      <c r="C95" s="69">
+        <v>46048</v>
+      </c>
+      <c r="E95" s="25">
+        <v>2023</v>
+      </c>
+      <c r="F95" t="s">
+        <v>127</v>
+      </c>
+      <c r="G95" s="69">
+        <v>46048</v>
+      </c>
+      <c r="I95" s="25">
+        <v>2023</v>
+      </c>
+      <c r="J95" t="s">
+        <v>127</v>
+      </c>
+      <c r="K95">
+        <v>46048</v>
+      </c>
+      <c r="M95" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2023 PBox - 46048</v>
+      </c>
+      <c r="N95" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2023 PBox - 46048</v>
+      </c>
+      <c r="O95" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2023 PBox - 46048</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" s="25">
+        <v>2023</v>
+      </c>
+      <c r="B96" t="s">
+        <v>128</v>
+      </c>
+      <c r="C96" s="69">
+        <v>639893</v>
+      </c>
+      <c r="E96" s="25">
+        <v>2023</v>
+      </c>
+      <c r="F96" t="s">
+        <v>128</v>
+      </c>
+      <c r="G96" s="69">
+        <v>639893</v>
+      </c>
+      <c r="I96" s="25">
+        <v>2023</v>
+      </c>
+      <c r="J96" t="s">
+        <v>128</v>
+      </c>
+      <c r="K96">
+        <v>639893</v>
+      </c>
+      <c r="M96" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2023 PBP - 639893</v>
+      </c>
+      <c r="N96" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2023 PBP - 639893</v>
+      </c>
+      <c r="O96" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2023 PBP - 639893</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" s="25">
+        <v>2023</v>
+      </c>
+      <c r="B97" t="s">
+        <v>129</v>
+      </c>
+      <c r="C97" s="69">
+        <v>1318</v>
+      </c>
+      <c r="E97" s="25">
+        <v>2023</v>
+      </c>
+      <c r="F97" t="s">
+        <v>129</v>
+      </c>
+      <c r="G97" s="69">
+        <v>1318</v>
+      </c>
+      <c r="I97" s="25">
+        <v>2023</v>
+      </c>
+      <c r="J97" t="s">
+        <v>129</v>
+      </c>
+      <c r="K97">
+        <v>1318</v>
+      </c>
+      <c r="M97" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2023 Season - 1318</v>
+      </c>
+      <c r="N97" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2023 Season - 1318</v>
+      </c>
+      <c r="O97" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2023 Season - 1318</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" s="25">
+        <v>2023</v>
+      </c>
+      <c r="B98" t="s">
+        <v>130</v>
+      </c>
+      <c r="C98" s="69">
+        <v>34815</v>
+      </c>
+      <c r="E98" s="25">
+        <v>2023</v>
+      </c>
+      <c r="F98" t="s">
+        <v>130</v>
+      </c>
+      <c r="G98" s="69">
+        <v>34815</v>
+      </c>
+      <c r="I98" s="25">
+        <v>2023</v>
+      </c>
+      <c r="J98" t="s">
+        <v>130</v>
+      </c>
+      <c r="K98">
+        <v>34815</v>
+      </c>
+      <c r="M98" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2023 SLineups - 34815</v>
+      </c>
+      <c r="N98" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2023 SLineups - 34815</v>
+      </c>
+      <c r="O98" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2023 SLineups - 34815</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" s="25">
+        <v>2023</v>
+      </c>
+      <c r="B99" t="s">
+        <v>131</v>
+      </c>
+      <c r="C99" s="69">
+        <v>2636</v>
+      </c>
+      <c r="E99" s="25">
+        <v>2023</v>
+      </c>
+      <c r="F99" t="s">
+        <v>131</v>
+      </c>
+      <c r="G99" s="69">
+        <v>2636</v>
+      </c>
+      <c r="I99" s="25">
+        <v>2023</v>
+      </c>
+      <c r="J99" t="s">
+        <v>131</v>
+      </c>
+      <c r="K99">
+        <v>2636</v>
+      </c>
+      <c r="M99" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2023 TBox - 2636</v>
+      </c>
+      <c r="N99" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2023 TBox - 2636</v>
+      </c>
+      <c r="O99" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2023 TBox - 2636</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" s="25">
+        <v>2023</v>
+      </c>
+      <c r="B100" t="s">
+        <v>132</v>
+      </c>
+      <c r="C100" s="69">
+        <v>5272</v>
+      </c>
+      <c r="E100" s="25">
+        <v>2023</v>
+      </c>
+      <c r="F100" t="s">
+        <v>132</v>
+      </c>
+      <c r="G100" s="69">
+        <v>5272</v>
+      </c>
+      <c r="I100" s="25">
+        <v>2023</v>
+      </c>
+      <c r="J100" t="s">
+        <v>132</v>
+      </c>
+      <c r="K100">
+        <v>5272</v>
+      </c>
+      <c r="M100" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2023 TboxLineups - 5272</v>
+      </c>
+      <c r="N100" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2023 TboxLineups - 5272</v>
+      </c>
+      <c r="O100" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2023 TboxLineups - 5272</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101" s="25">
+        <v>2024</v>
+      </c>
+      <c r="B101" t="s">
+        <v>133</v>
+      </c>
+      <c r="C101" s="69">
+        <v>1275</v>
+      </c>
+      <c r="E101" s="25">
+        <v>2024</v>
+      </c>
+      <c r="F101" t="s">
+        <v>133</v>
+      </c>
+      <c r="G101" s="69">
+        <v>1275</v>
+      </c>
+      <c r="I101" s="25">
+        <v>2024</v>
+      </c>
+      <c r="J101" t="s">
+        <v>133</v>
+      </c>
+      <c r="K101">
+        <v>1275</v>
+      </c>
+      <c r="M101" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2024 Game - 1275</v>
+      </c>
+      <c r="N101" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2024 Game - 1275</v>
+      </c>
+      <c r="O101" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2024 Game - 1275</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102" s="25">
+        <v>2024</v>
+      </c>
+      <c r="B102" t="s">
+        <v>134</v>
+      </c>
+      <c r="C102" s="69">
+        <v>1275</v>
+      </c>
+      <c r="E102" s="25">
+        <v>2024</v>
+      </c>
+      <c r="F102" t="s">
+        <v>134</v>
+      </c>
+      <c r="G102" s="69">
+        <v>1275</v>
+      </c>
+      <c r="I102" s="25">
+        <v>2024</v>
+      </c>
+      <c r="J102" t="s">
+        <v>134</v>
+      </c>
+      <c r="K102">
+        <v>1275</v>
+      </c>
+      <c r="M102" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2024 GameExt - 1275</v>
+      </c>
+      <c r="N102" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2024 GameExt - 1275</v>
+      </c>
+      <c r="O102" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2024 GameExt - 1275</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" s="25">
+        <v>2024</v>
+      </c>
+      <c r="B103" t="s">
+        <v>135</v>
+      </c>
+      <c r="C103" s="69">
+        <v>44747</v>
+      </c>
+      <c r="E103" s="25">
+        <v>2024</v>
+      </c>
+      <c r="F103" t="s">
+        <v>135</v>
+      </c>
+      <c r="G103" s="69">
+        <v>44747</v>
+      </c>
+      <c r="I103" s="25">
+        <v>2024</v>
+      </c>
+      <c r="J103" t="s">
+        <v>135</v>
+      </c>
+      <c r="K103">
+        <v>44747</v>
+      </c>
+      <c r="M103" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2024 PBox - 44747</v>
+      </c>
+      <c r="N103" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2024 PBox - 44747</v>
+      </c>
+      <c r="O103" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2024 PBox - 44747</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" s="25">
+        <v>2024</v>
+      </c>
+      <c r="B104" t="s">
+        <v>136</v>
+      </c>
+      <c r="C104" s="69">
+        <v>628330</v>
+      </c>
+      <c r="E104" s="25">
+        <v>2024</v>
+      </c>
+      <c r="F104" t="s">
+        <v>136</v>
+      </c>
+      <c r="G104" s="69">
+        <v>628330</v>
+      </c>
+      <c r="I104" s="25">
+        <v>2024</v>
+      </c>
+      <c r="J104" t="s">
+        <v>136</v>
+      </c>
+      <c r="K104">
+        <v>628330</v>
+      </c>
+      <c r="M104" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2024 PBP - 628330</v>
+      </c>
+      <c r="N104" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2024 PBP - 628330</v>
+      </c>
+      <c r="O104" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2024 PBP - 628330</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105" s="25">
+        <v>2024</v>
+      </c>
+      <c r="B105" t="s">
+        <v>137</v>
+      </c>
+      <c r="C105" s="69">
+        <v>1277</v>
+      </c>
+      <c r="E105" s="25">
+        <v>2024</v>
+      </c>
+      <c r="F105" t="s">
+        <v>137</v>
+      </c>
+      <c r="G105" s="69">
+        <v>1277</v>
+      </c>
+      <c r="I105" s="25">
+        <v>2024</v>
+      </c>
+      <c r="J105" t="s">
+        <v>137</v>
+      </c>
+      <c r="K105">
+        <v>1277</v>
+      </c>
+      <c r="M105" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2024 Season - 1277</v>
+      </c>
+      <c r="N105" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2024 Season - 1277</v>
+      </c>
+      <c r="O105" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2024 Season - 1277</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A106" s="25">
+        <v>2024</v>
+      </c>
+      <c r="B106" t="s">
+        <v>138</v>
+      </c>
+      <c r="C106" s="69">
+        <v>33783</v>
+      </c>
+      <c r="E106" s="25">
+        <v>2024</v>
+      </c>
+      <c r="F106" t="s">
+        <v>138</v>
+      </c>
+      <c r="G106" s="69">
+        <v>33783</v>
+      </c>
+      <c r="I106" s="25">
+        <v>2024</v>
+      </c>
+      <c r="J106" t="s">
+        <v>138</v>
+      </c>
+      <c r="K106">
+        <v>33783</v>
+      </c>
+      <c r="M106" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2024 SLineups - 33783</v>
+      </c>
+      <c r="N106" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2024 SLineups - 33783</v>
+      </c>
+      <c r="O106" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2024 SLineups - 33783</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A107" s="25">
+        <v>2024</v>
+      </c>
+      <c r="B107" t="s">
+        <v>139</v>
+      </c>
+      <c r="C107" s="69">
+        <v>2550</v>
+      </c>
+      <c r="E107" s="25">
+        <v>2024</v>
+      </c>
+      <c r="F107" t="s">
+        <v>139</v>
+      </c>
+      <c r="G107" s="69">
+        <v>2550</v>
+      </c>
+      <c r="I107" s="25">
+        <v>2024</v>
+      </c>
+      <c r="J107" t="s">
+        <v>139</v>
+      </c>
+      <c r="K107">
+        <v>2550</v>
+      </c>
+      <c r="M107" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2024 TBox - 2550</v>
+      </c>
+      <c r="N107" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2024 TBox - 2550</v>
+      </c>
+      <c r="O107" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2024 TBox - 2550</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A108" s="25">
+        <v>2024</v>
+      </c>
+      <c r="B108" t="s">
+        <v>140</v>
+      </c>
+      <c r="C108" s="69">
+        <v>5100</v>
+      </c>
+      <c r="E108" s="25">
+        <v>2024</v>
+      </c>
+      <c r="F108" t="s">
+        <v>140</v>
+      </c>
+      <c r="G108" s="69">
+        <v>5100</v>
+      </c>
+      <c r="I108" s="25">
+        <v>2024</v>
+      </c>
+      <c r="J108" t="s">
+        <v>140</v>
+      </c>
+      <c r="K108">
+        <v>5100</v>
+      </c>
+      <c r="M108" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[SeasonID]], " ", Table1[[#This Row],[TableRows]])</f>
+        <v>2024 TboxLineups - 5100</v>
+      </c>
+      <c r="N108" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[SeasonID]], " ", Table2[[#This Row],[TableRows]])</f>
+        <v>2024 TboxLineups - 5100</v>
+      </c>
+      <c r="O108" t="str">
+        <f>_xlfn.CONCAT(Table3[[#This Row],[SeasonID]], " ", Table3[[#This Row],[TableRows]])</f>
+        <v>2024 TboxLineups - 5100</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="M1:O1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
 </file>